--- a/Dataset/emg_data.xlsx
+++ b/Dataset/emg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\OneDrive\Desktop\Università\Tesi_Master\GitHub\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238CCBEF-4F94-4B09-BE69-51FEF820F909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94B2EF1-311A-4CF7-BE12-A41F7034E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9C722CCF-47F2-441F-BFF8-7A3E3BF06167}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="6480" xr2:uid="{9C722CCF-47F2-441F-BFF8-7A3E3BF06167}"/>
   </bookViews>
   <sheets>
     <sheet name="Data In" sheetId="2" r:id="rId1"/>
@@ -616,6 +616,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="13" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -658,35 +685,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="13" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="47" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="47" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BDD43A-8237-4D20-8FF2-D52CEAC3ADFC}">
   <dimension ref="A1:L507"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1035,52 +1035,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" s="37" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" s="46" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1115,18 +1115,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="38" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="47" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
-        <v>0.48676915509259261</v>
+        <v>0.16631447916666667</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1136,22 +1136,22 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" s="39" customFormat="1" ht="33.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:11" s="48" customFormat="1" ht="33.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="1:11" s="37" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" s="46" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="str">
         <f>IF(A4="","",A4)</f>
         <v>Time</v>
@@ -1197,39 +1197,39 @@
         <v>CH10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49">
-        <v>0.48676915509259261</v>
-      </c>
-      <c r="B8" s="42">
-        <v>0</v>
-      </c>
-      <c r="C8" s="42">
-        <v>7</v>
-      </c>
-      <c r="D8" s="42">
-        <v>0</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>0.16631447916666667</v>
+      </c>
+      <c r="B8" s="28">
+        <v>86</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28">
+        <v>50</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
-        <v>0.48676797453703702</v>
+        <v>0.16631343749999999</v>
       </c>
       <c r="B9" s="20">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C9" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9" s="20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -1239,18 +1239,18 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
-        <v>0.4867668171296296</v>
+        <v>0.16631215277777778</v>
       </c>
       <c r="B10" s="20">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C10" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" s="20">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1260,18 +1260,18 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
-        <v>0.48676564814814821</v>
+        <v>0.1663110763888889</v>
       </c>
       <c r="B11" s="20">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C11" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11" s="20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -1281,18 +1281,18 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
-        <v>0.48676446759259256</v>
+        <v>0.16630994212962963</v>
       </c>
       <c r="B12" s="20">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C12" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" s="20">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -1302,18 +1302,18 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
-        <v>0.48676333333333333</v>
+        <v>0.16630873842592594</v>
       </c>
       <c r="B13" s="20">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C13" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D13" s="20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -1323,18 +1323,18 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
-        <v>0.48676215277777779</v>
+        <v>0.16630756944444444</v>
       </c>
       <c r="B14" s="20">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C14" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D14" s="20">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -1344,18 +1344,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
-        <v>0.48676101851851855</v>
+        <v>0.16630638888888888</v>
       </c>
       <c r="B15" s="20">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C15" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D15" s="20">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -1365,18 +1365,18 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
-        <v>0.48675982638888887</v>
+        <v>0.16630518518518519</v>
       </c>
       <c r="B16" s="20">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C16" s="20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="20">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -1386,18 +1386,18 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
-        <v>0.48675868055555555</v>
+        <v>0.16630409722222222</v>
       </c>
       <c r="B17" s="20">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C17" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D17" s="20">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -1407,18 +1407,18 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
-        <v>0.48675748842592592</v>
+        <v>0.16630291666666666</v>
       </c>
       <c r="B18" s="20">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C18" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18" s="20">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -1428,18 +1428,18 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
-        <v>0.48675631944444442</v>
+        <v>0.16630172453703704</v>
       </c>
       <c r="B19" s="20">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C19" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D19" s="20">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -1449,18 +1449,18 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
-        <v>0.48675506944444441</v>
+        <v>0.16630063657407407</v>
       </c>
       <c r="B20" s="20">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C20" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D20" s="20">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -1470,18 +1470,18 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
-        <v>0.48675398148148152</v>
+        <v>0.16629940972222224</v>
       </c>
       <c r="B21" s="20">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C21" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D21" s="20">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -1491,42 +1491,42 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:12" s="40" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="50">
-        <v>0.48675282407407411</v>
-      </c>
-      <c r="B22" s="46">
-        <v>0</v>
-      </c>
-      <c r="C22" s="46">
-        <v>9</v>
-      </c>
-      <c r="D22" s="46">
-        <v>0</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="41" t="s">
+    <row r="22" spans="1:12" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35">
+        <v>0.16629827546296297</v>
+      </c>
+      <c r="B22" s="32">
+        <v>97</v>
+      </c>
+      <c r="C22" s="32">
+        <v>0</v>
+      </c>
+      <c r="D22" s="32">
+        <v>68</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="25" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51">
-        <v>0.48675155092592598</v>
+      <c r="A23" s="36">
+        <v>0.16629711805555555</v>
       </c>
       <c r="B23" s="24">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C23" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D23" s="24">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -1537,17 +1537,17 @@
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:12" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51">
-        <v>0.48675047453703707</v>
+      <c r="A24" s="36">
+        <v>0.16629590277777778</v>
       </c>
       <c r="B24" s="24">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C24" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D24" s="24">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -1558,17 +1558,17 @@
       <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51">
-        <v>0.48674920138888889</v>
+      <c r="A25" s="36">
+        <v>0.16629480324074072</v>
       </c>
       <c r="B25" s="24">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C25" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D25" s="24">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -1579,17 +1579,17 @@
       <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51">
-        <v>0.48674812500000003</v>
+      <c r="A26" s="36">
+        <v>0.16629357638888889</v>
       </c>
       <c r="B26" s="24">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C26" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" s="24">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -1600,17 +1600,17 @@
       <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51">
-        <v>0.48674694444444444</v>
+      <c r="A27" s="36">
+        <v>0.16629247685185186</v>
       </c>
       <c r="B27" s="24">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C27" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D27" s="24">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -1621,17 +1621,17 @@
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51">
-        <v>0.48674568287037034</v>
+      <c r="A28" s="36">
+        <v>0.16629114583333335</v>
       </c>
       <c r="B28" s="24">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C28" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D28" s="24">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -1642,17 +1642,17 @@
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51">
-        <v>0.4867445949074074</v>
+      <c r="A29" s="36">
+        <v>0.16629008101851853</v>
       </c>
       <c r="B29" s="24">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C29" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D29" s="24">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -1663,17 +1663,17 @@
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51">
-        <v>0.48674350694444446</v>
+      <c r="A30" s="36">
+        <v>0.16628895833333332</v>
       </c>
       <c r="B30" s="24">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C30" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D30" s="24">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -1684,17 +1684,17 @@
       <c r="K30" s="24"/>
     </row>
     <row r="31" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="51">
-        <v>0.48674224537037036</v>
+      <c r="A31" s="36">
+        <v>0.16628763888888889</v>
       </c>
       <c r="B31" s="24">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C31" s="24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D31" s="24">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -1705,17 +1705,17 @@
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51">
-        <v>0.48674106481481483</v>
+      <c r="A32" s="36">
+        <v>0.16628652777777778</v>
       </c>
       <c r="B32" s="24">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C32" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D32" s="24">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -1726,17 +1726,17 @@
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="51">
-        <v>0.48673998842592592</v>
+      <c r="A33" s="36">
+        <v>0.1662853125</v>
       </c>
       <c r="B33" s="24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C33" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D33" s="24">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -1747,17 +1747,17 @@
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51">
-        <v>0.48673871527777773</v>
+      <c r="A34" s="36">
+        <v>0.16628431712962963</v>
       </c>
       <c r="B34" s="24">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C34" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D34" s="24">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -1768,17 +1768,17 @@
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51">
-        <v>0.4867376157407407</v>
+      <c r="A35" s="36">
+        <v>0.16628305555555556</v>
       </c>
       <c r="B35" s="24">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C35" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D35" s="24">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -1789,17 +1789,17 @@
       <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51">
-        <v>0.48673652777777776</v>
+      <c r="A36" s="36">
+        <v>0.16628194444444444</v>
       </c>
       <c r="B36" s="24">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C36" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D36" s="24">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -1810,17 +1810,17 @@
       <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="51">
-        <v>0.4867353240740741</v>
+      <c r="A37" s="36">
+        <v>0.16628070601851852</v>
       </c>
       <c r="B37" s="24">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C37" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D37" s="24">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -1831,17 +1831,17 @@
       <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51">
-        <v>0.48673405092592592</v>
+      <c r="A38" s="36">
+        <v>0.16627960648148149</v>
       </c>
       <c r="B38" s="24">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C38" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D38" s="24">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -1852,17 +1852,17 @@
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51">
-        <v>0.48673304398148148</v>
+      <c r="A39" s="36">
+        <v>0.16627832175925927</v>
       </c>
       <c r="B39" s="24">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="C39" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D39" s="24">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -1873,17 +1873,17 @@
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51">
-        <v>0.48673186342592595</v>
+      <c r="A40" s="36">
+        <v>0.16627724537037036</v>
       </c>
       <c r="B40" s="24">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="C40" s="24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D40" s="24">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -1894,17 +1894,17 @@
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51">
-        <v>0.48673060185185185</v>
+      <c r="A41" s="36">
+        <v>0.16627603009259259</v>
       </c>
       <c r="B41" s="24">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="C41" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D41" s="24">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -1915,17 +1915,17 @@
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51">
-        <v>0.48672937499999996</v>
+      <c r="A42" s="36">
+        <v>0.16627495370370371</v>
       </c>
       <c r="B42" s="24">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="C42" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D42" s="24">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -1936,17 +1936,17 @@
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51">
-        <v>0.48672828703703702</v>
+      <c r="A43" s="36">
+        <v>0.16627373842592591</v>
       </c>
       <c r="B43" s="24">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="C43" s="24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D43" s="24">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -1957,17 +1957,17 @@
       <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="51">
-        <v>0.48672721064814817</v>
+      <c r="A44" s="36">
+        <v>0.16627256944444446</v>
       </c>
       <c r="B44" s="24">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="C44" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D44" s="24">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -1978,17 +1978,17 @@
       <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51">
-        <v>0.48672593749999998</v>
+      <c r="A45" s="36">
+        <v>0.16627145833333332</v>
       </c>
       <c r="B45" s="24">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="C45" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D45" s="24">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -1999,17 +1999,17 @@
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51">
-        <v>0.48672484953703704</v>
+      <c r="A46" s="36">
+        <v>0.16627023148148148</v>
       </c>
       <c r="B46" s="24">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="C46" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D46" s="24">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -2020,17 +2020,17 @@
       <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51">
-        <v>0.48672368055555554</v>
+      <c r="A47" s="36">
+        <v>0.16626914351851851</v>
       </c>
       <c r="B47" s="24">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="C47" s="24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D47" s="24">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -2041,17 +2041,17 @@
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="51">
-        <v>0.48672240740740741</v>
+      <c r="A48" s="36">
+        <v>0.16626789351851853</v>
       </c>
       <c r="B48" s="24">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="C48" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D48" s="24">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -2062,10 +2062,18 @@
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="A49" s="36">
+        <v>0.16626663194444444</v>
+      </c>
+      <c r="B49" s="24">
+        <v>377</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0</v>
+      </c>
+      <c r="D49" s="24">
+        <v>297</v>
+      </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
@@ -2075,10 +2083,18 @@
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="36">
+        <v>0.16626556712962962</v>
+      </c>
+      <c r="B50" s="24">
+        <v>345</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0</v>
+      </c>
+      <c r="D50" s="24">
+        <v>258</v>
+      </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
@@ -2088,10 +2104,18 @@
       <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="36">
+        <v>0.16626445601851852</v>
+      </c>
+      <c r="B51" s="24">
+        <v>279</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0</v>
+      </c>
+      <c r="D51" s="24">
+        <v>231</v>
+      </c>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
@@ -2101,10 +2125,18 @@
       <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="45"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="36">
+        <v>0.16626313657407407</v>
+      </c>
+      <c r="B52" s="24">
+        <v>280</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0</v>
+      </c>
+      <c r="D52" s="24">
+        <v>282</v>
+      </c>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -2114,10 +2146,18 @@
       <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="45"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="A53" s="36">
+        <v>0.16626195601851851</v>
+      </c>
+      <c r="B53" s="24">
+        <v>324</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0</v>
+      </c>
+      <c r="D53" s="24">
+        <v>277</v>
+      </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -2127,10 +2167,18 @@
       <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="36">
+        <v>0.16626089120370371</v>
+      </c>
+      <c r="B54" s="24">
+        <v>316</v>
+      </c>
+      <c r="C54" s="24">
+        <v>0</v>
+      </c>
+      <c r="D54" s="24">
+        <v>295</v>
+      </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -2140,10 +2188,18 @@
       <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="45"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="A55" s="36">
+        <v>0.16625976851851851</v>
+      </c>
+      <c r="B55" s="24">
+        <v>285</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0</v>
+      </c>
+      <c r="D55" s="24">
+        <v>336</v>
+      </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
@@ -2153,10 +2209,18 @@
       <c r="K55" s="24"/>
     </row>
     <row r="56" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="45"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="A56" s="36">
+        <v>0.1662589351851852</v>
+      </c>
+      <c r="B56" s="24">
+        <v>345</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0</v>
+      </c>
+      <c r="D56" s="24">
+        <v>337</v>
+      </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
@@ -2166,10 +2230,18 @@
       <c r="K56" s="24"/>
     </row>
     <row r="57" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="A57" s="36">
+        <v>0.16625744212962962</v>
+      </c>
+      <c r="B57" s="24">
+        <v>409</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0</v>
+      </c>
+      <c r="D57" s="24">
+        <v>374</v>
+      </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
@@ -2179,10 +2251,18 @@
       <c r="K57" s="24"/>
     </row>
     <row r="58" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="45"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="A58" s="36">
+        <v>0.16625629629629629</v>
+      </c>
+      <c r="B58" s="24">
+        <v>406</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0</v>
+      </c>
+      <c r="D58" s="24">
+        <v>346</v>
+      </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
@@ -2192,10 +2272,18 @@
       <c r="K58" s="24"/>
     </row>
     <row r="59" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="45"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="A59" s="36">
+        <v>0.16625508101851852</v>
+      </c>
+      <c r="B59" s="24">
+        <v>350</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0</v>
+      </c>
+      <c r="D59" s="24">
+        <v>308</v>
+      </c>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
@@ -2205,10 +2293,18 @@
       <c r="K59" s="24"/>
     </row>
     <row r="60" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="A60" s="36">
+        <v>0.16625403935185185</v>
+      </c>
+      <c r="B60" s="24">
+        <v>380</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0</v>
+      </c>
+      <c r="D60" s="24">
+        <v>418</v>
+      </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
@@ -2218,10 +2314,18 @@
       <c r="K60" s="24"/>
     </row>
     <row r="61" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="36">
+        <v>0.16625276620370369</v>
+      </c>
+      <c r="B61" s="24">
+        <v>330</v>
+      </c>
+      <c r="C61" s="24">
+        <v>0</v>
+      </c>
+      <c r="D61" s="24">
+        <v>369</v>
+      </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
@@ -2231,10 +2335,18 @@
       <c r="K61" s="24"/>
     </row>
     <row r="62" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="45"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="A62" s="36">
+        <v>0.16625156250000001</v>
+      </c>
+      <c r="B62" s="24">
+        <v>282</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0</v>
+      </c>
+      <c r="D62" s="24">
+        <v>280</v>
+      </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
@@ -2244,10 +2356,18 @@
       <c r="K62" s="24"/>
     </row>
     <row r="63" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="45"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="A63" s="36">
+        <v>0.16625069444444443</v>
+      </c>
+      <c r="B63" s="24">
+        <v>307</v>
+      </c>
+      <c r="C63" s="24">
+        <v>0</v>
+      </c>
+      <c r="D63" s="24">
+        <v>310</v>
+      </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
@@ -2257,10 +2377,18 @@
       <c r="K63" s="24"/>
     </row>
     <row r="64" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="45"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="A64" s="36">
+        <v>0.16624924768518518</v>
+      </c>
+      <c r="B64" s="24">
+        <v>257</v>
+      </c>
+      <c r="C64" s="24">
+        <v>0</v>
+      </c>
+      <c r="D64" s="24">
+        <v>247</v>
+      </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
@@ -2270,10 +2398,18 @@
       <c r="K64" s="24"/>
     </row>
     <row r="65" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="A65" s="36">
+        <v>0.16624811342592591</v>
+      </c>
+      <c r="B65" s="24">
+        <v>212</v>
+      </c>
+      <c r="C65" s="24">
+        <v>0</v>
+      </c>
+      <c r="D65" s="24">
+        <v>174</v>
+      </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
@@ -2283,10 +2419,18 @@
       <c r="K65" s="24"/>
     </row>
     <row r="66" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="A66" s="36">
+        <v>0.16624692129629631</v>
+      </c>
+      <c r="B66" s="24">
+        <v>202</v>
+      </c>
+      <c r="C66" s="24">
+        <v>0</v>
+      </c>
+      <c r="D66" s="24">
+        <v>253</v>
+      </c>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
@@ -2296,10 +2440,18 @@
       <c r="K66" s="24"/>
     </row>
     <row r="67" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="45"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="A67" s="36">
+        <v>0.16624563657407407</v>
+      </c>
+      <c r="B67" s="24">
+        <v>124</v>
+      </c>
+      <c r="C67" s="24">
+        <v>0</v>
+      </c>
+      <c r="D67" s="24">
+        <v>117</v>
+      </c>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
@@ -2309,10 +2461,18 @@
       <c r="K67" s="24"/>
     </row>
     <row r="68" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="45"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="A68" s="36">
+        <v>0.16624459490740739</v>
+      </c>
+      <c r="B68" s="24">
+        <v>111</v>
+      </c>
+      <c r="C68" s="24">
+        <v>0</v>
+      </c>
+      <c r="D68" s="24">
+        <v>120</v>
+      </c>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
@@ -2322,10 +2482,18 @@
       <c r="K68" s="24"/>
     </row>
     <row r="69" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="45"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="A69" s="36">
+        <v>0.16624329861111112</v>
+      </c>
+      <c r="B69" s="24">
+        <v>74</v>
+      </c>
+      <c r="C69" s="24">
+        <v>0</v>
+      </c>
+      <c r="D69" s="24">
+        <v>61</v>
+      </c>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
@@ -2335,10 +2503,18 @@
       <c r="K69" s="24"/>
     </row>
     <row r="70" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="45"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="A70" s="36">
+        <v>0.16624224537037036</v>
+      </c>
+      <c r="B70" s="24">
+        <v>38</v>
+      </c>
+      <c r="C70" s="24">
+        <v>0</v>
+      </c>
+      <c r="D70" s="24">
+        <v>70</v>
+      </c>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
@@ -2348,10 +2524,18 @@
       <c r="K70" s="24"/>
     </row>
     <row r="71" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="45"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="A71" s="36">
+        <v>0.16624116898148147</v>
+      </c>
+      <c r="B71" s="24">
+        <v>29</v>
+      </c>
+      <c r="C71" s="24">
+        <v>0</v>
+      </c>
+      <c r="D71" s="24">
+        <v>66</v>
+      </c>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
@@ -2361,10 +2545,18 @@
       <c r="K71" s="24"/>
     </row>
     <row r="72" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="45"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="A72" s="36">
+        <v>0.16623982638888887</v>
+      </c>
+      <c r="B72" s="24">
+        <v>33</v>
+      </c>
+      <c r="C72" s="24">
+        <v>0</v>
+      </c>
+      <c r="D72" s="24">
+        <v>66</v>
+      </c>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
       <c r="G72" s="24"/>
@@ -2374,10 +2566,18 @@
       <c r="K72" s="24"/>
     </row>
     <row r="73" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="45"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="A73" s="36">
+        <v>0.16623874999999999</v>
+      </c>
+      <c r="B73" s="24">
+        <v>21</v>
+      </c>
+      <c r="C73" s="24">
+        <v>0</v>
+      </c>
+      <c r="D73" s="24">
+        <v>39</v>
+      </c>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
@@ -2387,10 +2587,18 @@
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="45"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="A74" s="36">
+        <v>0.16623761574074075</v>
+      </c>
+      <c r="B74" s="24">
+        <v>28</v>
+      </c>
+      <c r="C74" s="24">
+        <v>0</v>
+      </c>
+      <c r="D74" s="24">
+        <v>32</v>
+      </c>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
@@ -2400,10 +2608,18 @@
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="45"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="36">
+        <v>0.16623649305555557</v>
+      </c>
+      <c r="B75" s="24">
+        <v>47</v>
+      </c>
+      <c r="C75" s="24">
+        <v>0</v>
+      </c>
+      <c r="D75" s="24">
+        <v>29</v>
+      </c>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
@@ -2413,10 +2629,18 @@
       <c r="K75" s="24"/>
     </row>
     <row r="76" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="A76" s="36">
+        <v>0.16623530092592592</v>
+      </c>
+      <c r="B76" s="24">
+        <v>55</v>
+      </c>
+      <c r="C76" s="24">
+        <v>0</v>
+      </c>
+      <c r="D76" s="24">
+        <v>29</v>
+      </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
@@ -2426,10 +2650,18 @@
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="45"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="A77" s="36">
+        <v>0.16623429398148148</v>
+      </c>
+      <c r="B77" s="24">
+        <v>51</v>
+      </c>
+      <c r="C77" s="24">
+        <v>0</v>
+      </c>
+      <c r="D77" s="24">
+        <v>26</v>
+      </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
@@ -2439,10 +2671,18 @@
       <c r="K77" s="24"/>
     </row>
     <row r="78" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="45"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="A78" s="36">
+        <v>0.16623281249999999</v>
+      </c>
+      <c r="B78" s="24">
+        <v>75</v>
+      </c>
+      <c r="C78" s="24">
+        <v>0</v>
+      </c>
+      <c r="D78" s="24">
+        <v>29</v>
+      </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
@@ -2452,10 +2692,18 @@
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="45"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="A79" s="36">
+        <v>0.16623180555555556</v>
+      </c>
+      <c r="B79" s="24">
+        <v>64</v>
+      </c>
+      <c r="C79" s="24">
+        <v>0</v>
+      </c>
+      <c r="D79" s="24">
+        <v>26</v>
+      </c>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
@@ -2465,10 +2713,18 @@
       <c r="K79" s="24"/>
     </row>
     <row r="80" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="45"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="A80" s="36">
+        <v>0.1662305787037037</v>
+      </c>
+      <c r="B80" s="24">
+        <v>61</v>
+      </c>
+      <c r="C80" s="24">
+        <v>0</v>
+      </c>
+      <c r="D80" s="24">
+        <v>26</v>
+      </c>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
@@ -2478,10 +2734,18 @@
       <c r="K80" s="24"/>
     </row>
     <row r="81" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="45"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+      <c r="A81" s="36">
+        <v>0.16622946759259261</v>
+      </c>
+      <c r="B81" s="24">
+        <v>83</v>
+      </c>
+      <c r="C81" s="24">
+        <v>0</v>
+      </c>
+      <c r="D81" s="24">
+        <v>24</v>
+      </c>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
@@ -2491,10 +2755,18 @@
       <c r="K81" s="24"/>
     </row>
     <row r="82" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="45"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="36">
+        <v>0.16622827546296295</v>
+      </c>
+      <c r="B82" s="24">
+        <v>124</v>
+      </c>
+      <c r="C82" s="24">
+        <v>0</v>
+      </c>
+      <c r="D82" s="24">
+        <v>22</v>
+      </c>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
@@ -2504,10 +2776,18 @@
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="45"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="A83" s="36">
+        <v>0.16622710648148148</v>
+      </c>
+      <c r="B83" s="24">
+        <v>90</v>
+      </c>
+      <c r="C83" s="24">
+        <v>0</v>
+      </c>
+      <c r="D83" s="24">
+        <v>24</v>
+      </c>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
@@ -2517,10 +2797,18 @@
       <c r="K83" s="24"/>
     </row>
     <row r="84" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="45"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="A84" s="36">
+        <v>0.16622596064814815</v>
+      </c>
+      <c r="B84" s="24">
+        <v>35</v>
+      </c>
+      <c r="C84" s="24">
+        <v>0</v>
+      </c>
+      <c r="D84" s="24">
+        <v>16</v>
+      </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
@@ -2530,10 +2818,18 @@
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="45"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+      <c r="A85" s="36">
+        <v>0.16622488425925927</v>
+      </c>
+      <c r="B85" s="24">
+        <v>45</v>
+      </c>
+      <c r="C85" s="24">
+        <v>0</v>
+      </c>
+      <c r="D85" s="24">
+        <v>17</v>
+      </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
@@ -2543,10 +2839,18 @@
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="45"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+      <c r="A86" s="36">
+        <v>0.16622365740740741</v>
+      </c>
+      <c r="B86" s="24">
+        <v>46</v>
+      </c>
+      <c r="C86" s="24">
+        <v>0</v>
+      </c>
+      <c r="D86" s="24">
+        <v>23</v>
+      </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
       <c r="G86" s="24"/>
@@ -2556,10 +2860,18 @@
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="45"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+      <c r="A87" s="36">
+        <v>0.16622238425925925</v>
+      </c>
+      <c r="B87" s="24">
+        <v>46</v>
+      </c>
+      <c r="C87" s="24">
+        <v>0</v>
+      </c>
+      <c r="D87" s="24">
+        <v>16</v>
+      </c>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
@@ -2569,10 +2881,18 @@
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="A88" s="36">
+        <v>0.16622111111111113</v>
+      </c>
+      <c r="B88" s="24">
+        <v>41</v>
+      </c>
+      <c r="C88" s="24">
+        <v>0</v>
+      </c>
+      <c r="D88" s="24">
+        <v>19</v>
+      </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
@@ -2582,10 +2902,18 @@
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="45"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+      <c r="A89" s="36">
+        <v>0.16622017361111113</v>
+      </c>
+      <c r="B89" s="24">
+        <v>40</v>
+      </c>
+      <c r="C89" s="24">
+        <v>0</v>
+      </c>
+      <c r="D89" s="24">
+        <v>20</v>
+      </c>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
@@ -2595,10 +2923,18 @@
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="45"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="A90" s="36">
+        <v>0.16621890046296298</v>
+      </c>
+      <c r="B90" s="24">
+        <v>38</v>
+      </c>
+      <c r="C90" s="24">
+        <v>0</v>
+      </c>
+      <c r="D90" s="24">
+        <v>15</v>
+      </c>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
       <c r="G90" s="24"/>
@@ -2608,10 +2944,18 @@
       <c r="K90" s="24"/>
     </row>
     <row r="91" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="45"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="A91" s="36">
+        <v>0.1662178587962963</v>
+      </c>
+      <c r="B91" s="24">
+        <v>44</v>
+      </c>
+      <c r="C91" s="24">
+        <v>0</v>
+      </c>
+      <c r="D91" s="24">
+        <v>16</v>
+      </c>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
@@ -2621,10 +2965,18 @@
       <c r="K91" s="24"/>
     </row>
     <row r="92" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="45"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="A92" s="36">
+        <v>0.1662165162037037</v>
+      </c>
+      <c r="B92" s="24">
+        <v>44</v>
+      </c>
+      <c r="C92" s="24">
+        <v>0</v>
+      </c>
+      <c r="D92" s="24">
+        <v>21</v>
+      </c>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
       <c r="G92" s="24"/>
@@ -2634,10 +2986,18 @@
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="45"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
+      <c r="A93" s="36">
+        <v>0.16621542824074076</v>
+      </c>
+      <c r="B93" s="24">
+        <v>37</v>
+      </c>
+      <c r="C93" s="24">
+        <v>0</v>
+      </c>
+      <c r="D93" s="24">
+        <v>18</v>
+      </c>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
@@ -2647,10 +3007,18 @@
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="45"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
+      <c r="A94" s="36">
+        <v>0.1662142824074074</v>
+      </c>
+      <c r="B94" s="24">
+        <v>36</v>
+      </c>
+      <c r="C94" s="24">
+        <v>0</v>
+      </c>
+      <c r="D94" s="24">
+        <v>11</v>
+      </c>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
@@ -2660,10 +3028,18 @@
       <c r="K94" s="24"/>
     </row>
     <row r="95" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="45"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
+      <c r="A95" s="36">
+        <v>0.16621306712962963</v>
+      </c>
+      <c r="B95" s="24">
+        <v>36</v>
+      </c>
+      <c r="C95" s="24">
+        <v>0</v>
+      </c>
+      <c r="D95" s="24">
+        <v>11</v>
+      </c>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
@@ -2673,10 +3049,18 @@
       <c r="K95" s="24"/>
     </row>
     <row r="96" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="45"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
+      <c r="A96" s="36">
+        <v>0.16621186342592592</v>
+      </c>
+      <c r="B96" s="24">
+        <v>39</v>
+      </c>
+      <c r="C96" s="24">
+        <v>0</v>
+      </c>
+      <c r="D96" s="24">
+        <v>15</v>
+      </c>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
@@ -2686,10 +3070,18 @@
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="45"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
+      <c r="A97" s="36">
+        <v>0.16621064814814815</v>
+      </c>
+      <c r="B97" s="24">
+        <v>41</v>
+      </c>
+      <c r="C97" s="24">
+        <v>0</v>
+      </c>
+      <c r="D97" s="24">
+        <v>17</v>
+      </c>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
@@ -2699,10 +3091,18 @@
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="45"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
+      <c r="A98" s="36">
+        <v>0.16620953703703706</v>
+      </c>
+      <c r="B98" s="24">
+        <v>40</v>
+      </c>
+      <c r="C98" s="24">
+        <v>0</v>
+      </c>
+      <c r="D98" s="24">
+        <v>9</v>
+      </c>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
@@ -2712,10 +3112,18 @@
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="45"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
+      <c r="A99" s="36">
+        <v>0.16620833333333332</v>
+      </c>
+      <c r="B99" s="24">
+        <v>42</v>
+      </c>
+      <c r="C99" s="24">
+        <v>0</v>
+      </c>
+      <c r="D99" s="24">
+        <v>8</v>
+      </c>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
@@ -2725,10 +3133,18 @@
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="A100" s="36">
+        <v>0.16620725694444446</v>
+      </c>
+      <c r="B100" s="24">
+        <v>46</v>
+      </c>
+      <c r="C100" s="24">
+        <v>0</v>
+      </c>
+      <c r="D100" s="24">
+        <v>7</v>
+      </c>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
@@ -2738,10 +3154,18 @@
       <c r="K100" s="24"/>
     </row>
     <row r="101" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="45"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+      <c r="A101" s="36">
+        <v>0.16620606481481481</v>
+      </c>
+      <c r="B101" s="24">
+        <v>49</v>
+      </c>
+      <c r="C101" s="24">
+        <v>0</v>
+      </c>
+      <c r="D101" s="24">
+        <v>6</v>
+      </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
@@ -2751,10 +3175,18 @@
       <c r="K101" s="24"/>
     </row>
     <row r="102" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="45"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="A102" s="36">
+        <v>0.16620484953703704</v>
+      </c>
+      <c r="B102" s="24">
+        <v>51</v>
+      </c>
+      <c r="C102" s="24">
+        <v>0</v>
+      </c>
+      <c r="D102" s="24">
+        <v>7</v>
+      </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
@@ -2764,10 +3196,18 @@
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="45"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
+      <c r="A103" s="36">
+        <v>0.16620376157407407</v>
+      </c>
+      <c r="B103" s="24">
+        <v>53</v>
+      </c>
+      <c r="C103" s="24">
+        <v>0</v>
+      </c>
+      <c r="D103" s="24">
+        <v>7</v>
+      </c>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
@@ -2777,10 +3217,18 @@
       <c r="K103" s="24"/>
     </row>
     <row r="104" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="45"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="A104" s="36">
+        <v>0.16620252314814815</v>
+      </c>
+      <c r="B104" s="24">
+        <v>53</v>
+      </c>
+      <c r="C104" s="24">
+        <v>0</v>
+      </c>
+      <c r="D104" s="24">
+        <v>8</v>
+      </c>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
@@ -2790,10 +3238,18 @@
       <c r="K104" s="24"/>
     </row>
     <row r="105" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="45"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
+      <c r="A105" s="36">
+        <v>0.16620145833333333</v>
+      </c>
+      <c r="B105" s="24">
+        <v>53</v>
+      </c>
+      <c r="C105" s="24">
+        <v>0</v>
+      </c>
+      <c r="D105" s="24">
+        <v>7</v>
+      </c>
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
@@ -2803,10 +3259,18 @@
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="45"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="A106" s="36">
+        <v>0.16620027777777777</v>
+      </c>
+      <c r="B106" s="24">
+        <v>44</v>
+      </c>
+      <c r="C106" s="24">
+        <v>0</v>
+      </c>
+      <c r="D106" s="24">
+        <v>8</v>
+      </c>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
       <c r="G106" s="24"/>
@@ -2816,10 +3280,18 @@
       <c r="K106" s="24"/>
     </row>
     <row r="107" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="45"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
+      <c r="A107" s="36">
+        <v>0.16619900462962961</v>
+      </c>
+      <c r="B107" s="24">
+        <v>39</v>
+      </c>
+      <c r="C107" s="24">
+        <v>0</v>
+      </c>
+      <c r="D107" s="24">
+        <v>7</v>
+      </c>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
       <c r="G107" s="24"/>
@@ -2829,10 +3301,18 @@
       <c r="K107" s="24"/>
     </row>
     <row r="108" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="45"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="A108" s="36">
+        <v>0.16619796296296296</v>
+      </c>
+      <c r="B108" s="24">
+        <v>37</v>
+      </c>
+      <c r="C108" s="24">
+        <v>0</v>
+      </c>
+      <c r="D108" s="24">
+        <v>6</v>
+      </c>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
@@ -2842,10 +3322,18 @@
       <c r="K108" s="24"/>
     </row>
     <row r="109" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="45"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="A109" s="36">
+        <v>0.16619675925925925</v>
+      </c>
+      <c r="B109" s="24">
+        <v>37</v>
+      </c>
+      <c r="C109" s="24">
+        <v>0</v>
+      </c>
+      <c r="D109" s="24">
+        <v>7</v>
+      </c>
       <c r="E109" s="24"/>
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
@@ -2855,10 +3343,18 @@
       <c r="K109" s="24"/>
     </row>
     <row r="110" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="45"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
+      <c r="A110" s="36">
+        <v>0.16619552083333333</v>
+      </c>
+      <c r="B110" s="24">
+        <v>37</v>
+      </c>
+      <c r="C110" s="24">
+        <v>0</v>
+      </c>
+      <c r="D110" s="24">
+        <v>6</v>
+      </c>
       <c r="E110" s="24"/>
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
@@ -2868,10 +3364,18 @@
       <c r="K110" s="24"/>
     </row>
     <row r="111" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="45"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="A111" s="36">
+        <v>0.16619447916666666</v>
+      </c>
+      <c r="B111" s="24">
+        <v>36</v>
+      </c>
+      <c r="C111" s="24">
+        <v>0</v>
+      </c>
+      <c r="D111" s="24">
+        <v>6</v>
+      </c>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
@@ -2881,10 +3385,18 @@
       <c r="K111" s="24"/>
     </row>
     <row r="112" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="45"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
+      <c r="A112" s="36">
+        <v>0.16619318287037038</v>
+      </c>
+      <c r="B112" s="24">
+        <v>34</v>
+      </c>
+      <c r="C112" s="24">
+        <v>0</v>
+      </c>
+      <c r="D112" s="24">
+        <v>6</v>
+      </c>
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
@@ -2894,10 +3406,18 @@
       <c r="K112" s="24"/>
     </row>
     <row r="113" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="45"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
+      <c r="A113" s="36">
+        <v>0.16619202546296297</v>
+      </c>
+      <c r="B113" s="24">
+        <v>32</v>
+      </c>
+      <c r="C113" s="24">
+        <v>0</v>
+      </c>
+      <c r="D113" s="24">
+        <v>5</v>
+      </c>
       <c r="E113" s="24"/>
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
@@ -2907,10 +3427,18 @@
       <c r="K113" s="24"/>
     </row>
     <row r="114" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="45"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
+      <c r="A114" s="36">
+        <v>0.16619087962962964</v>
+      </c>
+      <c r="B114" s="24">
+        <v>27</v>
+      </c>
+      <c r="C114" s="24">
+        <v>0</v>
+      </c>
+      <c r="D114" s="24">
+        <v>5</v>
+      </c>
       <c r="E114" s="24"/>
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
@@ -2920,10 +3448,18 @@
       <c r="K114" s="24"/>
     </row>
     <row r="115" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="45"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+      <c r="A115" s="36">
+        <v>0.16618973379629629</v>
+      </c>
+      <c r="B115" s="24">
+        <v>19</v>
+      </c>
+      <c r="C115" s="24">
+        <v>0</v>
+      </c>
+      <c r="D115" s="24">
+        <v>6</v>
+      </c>
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
@@ -2933,10 +3469,18 @@
       <c r="K115" s="24"/>
     </row>
     <row r="116" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="45"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="A116" s="36">
+        <v>0.16618859953703705</v>
+      </c>
+      <c r="B116" s="24">
+        <v>22</v>
+      </c>
+      <c r="C116" s="24">
+        <v>0</v>
+      </c>
+      <c r="D116" s="24">
+        <v>6</v>
+      </c>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
@@ -2946,10 +3490,18 @@
       <c r="K116" s="24"/>
     </row>
     <row r="117" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="45"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
+      <c r="A117" s="36">
+        <v>0.16618730324074074</v>
+      </c>
+      <c r="B117" s="24">
+        <v>18</v>
+      </c>
+      <c r="C117" s="24">
+        <v>0</v>
+      </c>
+      <c r="D117" s="24">
+        <v>6</v>
+      </c>
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
       <c r="G117" s="24"/>
@@ -2959,10 +3511,18 @@
       <c r="K117" s="24"/>
     </row>
     <row r="118" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="45"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
+      <c r="A118" s="36">
+        <v>0.16618625000000001</v>
+      </c>
+      <c r="B118" s="24">
+        <v>27</v>
+      </c>
+      <c r="C118" s="24">
+        <v>0</v>
+      </c>
+      <c r="D118" s="24">
+        <v>5</v>
+      </c>
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
       <c r="G118" s="24"/>
@@ -2972,10 +3532,18 @@
       <c r="K118" s="24"/>
     </row>
     <row r="119" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="45"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
+      <c r="A119" s="36">
+        <v>0.16618502314814815</v>
+      </c>
+      <c r="B119" s="24">
+        <v>37</v>
+      </c>
+      <c r="C119" s="24">
+        <v>0</v>
+      </c>
+      <c r="D119" s="24">
+        <v>7</v>
+      </c>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
       <c r="G119" s="24"/>
@@ -2985,10 +3553,18 @@
       <c r="K119" s="24"/>
     </row>
     <row r="120" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="45"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
+      <c r="A120" s="36">
+        <v>0.16618395833333333</v>
+      </c>
+      <c r="B120" s="24">
+        <v>34</v>
+      </c>
+      <c r="C120" s="24">
+        <v>0</v>
+      </c>
+      <c r="D120" s="24">
+        <v>6</v>
+      </c>
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
       <c r="G120" s="24"/>
@@ -2998,10 +3574,18 @@
       <c r="K120" s="24"/>
     </row>
     <row r="121" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="45"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
+      <c r="A121" s="36">
+        <v>0.1661827662037037</v>
+      </c>
+      <c r="B121" s="24">
+        <v>34</v>
+      </c>
+      <c r="C121" s="24">
+        <v>0</v>
+      </c>
+      <c r="D121" s="24">
+        <v>6</v>
+      </c>
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
       <c r="G121" s="24"/>
@@ -3011,10 +3595,18 @@
       <c r="K121" s="24"/>
     </row>
     <row r="122" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="45"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
+      <c r="A122" s="36">
+        <v>0.16618156249999999</v>
+      </c>
+      <c r="B122" s="24">
+        <v>34</v>
+      </c>
+      <c r="C122" s="24">
+        <v>0</v>
+      </c>
+      <c r="D122" s="24">
+        <v>6</v>
+      </c>
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
       <c r="G122" s="24"/>
@@ -3024,10 +3616,18 @@
       <c r="K122" s="24"/>
     </row>
     <row r="123" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="45"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
+      <c r="A123" s="36">
+        <v>0.1661804976851852</v>
+      </c>
+      <c r="B123" s="24">
+        <v>37</v>
+      </c>
+      <c r="C123" s="24">
+        <v>0</v>
+      </c>
+      <c r="D123" s="24">
+        <v>6</v>
+      </c>
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
       <c r="G123" s="24"/>
@@ -3037,10 +3637,18 @@
       <c r="K123" s="24"/>
     </row>
     <row r="124" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="45"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
+      <c r="A124" s="36">
+        <v>0.16617930555555555</v>
+      </c>
+      <c r="B124" s="24">
+        <v>39</v>
+      </c>
+      <c r="C124" s="24">
+        <v>0</v>
+      </c>
+      <c r="D124" s="24">
+        <v>6</v>
+      </c>
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
       <c r="G124" s="24"/>
@@ -3050,10 +3658,18 @@
       <c r="K124" s="24"/>
     </row>
     <row r="125" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="45"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
+      <c r="A125" s="36">
+        <v>0.16617813657407407</v>
+      </c>
+      <c r="B125" s="24">
+        <v>39</v>
+      </c>
+      <c r="C125" s="24">
+        <v>0</v>
+      </c>
+      <c r="D125" s="24">
+        <v>7</v>
+      </c>
       <c r="E125" s="24"/>
       <c r="F125" s="24"/>
       <c r="G125" s="24"/>
@@ -3063,10 +3679,18 @@
       <c r="K125" s="24"/>
     </row>
     <row r="126" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="45"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="A126" s="36">
+        <v>0.16617697916666668</v>
+      </c>
+      <c r="B126" s="24">
+        <v>43</v>
+      </c>
+      <c r="C126" s="24">
+        <v>0</v>
+      </c>
+      <c r="D126" s="24">
+        <v>7</v>
+      </c>
       <c r="E126" s="24"/>
       <c r="F126" s="24"/>
       <c r="G126" s="24"/>
@@ -3076,10 +3700,18 @@
       <c r="K126" s="24"/>
     </row>
     <row r="127" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="45"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
+      <c r="A127" s="36">
+        <v>0.16617600694444445</v>
+      </c>
+      <c r="B127" s="24">
+        <v>46</v>
+      </c>
+      <c r="C127" s="24">
+        <v>0</v>
+      </c>
+      <c r="D127" s="24">
+        <v>6</v>
+      </c>
       <c r="E127" s="24"/>
       <c r="F127" s="24"/>
       <c r="G127" s="24"/>
@@ -3089,10 +3721,18 @@
       <c r="K127" s="24"/>
     </row>
     <row r="128" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="45"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="A128" s="36">
+        <v>0.1661746875</v>
+      </c>
+      <c r="B128" s="24">
+        <v>48</v>
+      </c>
+      <c r="C128" s="24">
+        <v>0</v>
+      </c>
+      <c r="D128" s="24">
+        <v>7</v>
+      </c>
       <c r="E128" s="24"/>
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
@@ -3102,10 +3742,18 @@
       <c r="K128" s="24"/>
     </row>
     <row r="129" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="45"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
+      <c r="A129" s="36">
+        <v>0.16617353009259259</v>
+      </c>
+      <c r="B129" s="24">
+        <v>49</v>
+      </c>
+      <c r="C129" s="24">
+        <v>0</v>
+      </c>
+      <c r="D129" s="24">
+        <v>6</v>
+      </c>
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
       <c r="G129" s="24"/>
@@ -3115,10 +3763,18 @@
       <c r="K129" s="24"/>
     </row>
     <row r="130" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="45"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
+      <c r="A130" s="36">
+        <v>0.16617234953703702</v>
+      </c>
+      <c r="B130" s="24">
+        <v>46</v>
+      </c>
+      <c r="C130" s="24">
+        <v>0</v>
+      </c>
+      <c r="D130" s="24">
+        <v>6</v>
+      </c>
       <c r="E130" s="24"/>
       <c r="F130" s="24"/>
       <c r="G130" s="24"/>
@@ -3128,10 +3784,18 @@
       <c r="K130" s="24"/>
     </row>
     <row r="131" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="45"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
+      <c r="A131" s="36">
+        <v>0.16617143518518518</v>
+      </c>
+      <c r="B131" s="24">
+        <v>41</v>
+      </c>
+      <c r="C131" s="24">
+        <v>0</v>
+      </c>
+      <c r="D131" s="24">
+        <v>7</v>
+      </c>
       <c r="E131" s="24"/>
       <c r="F131" s="24"/>
       <c r="G131" s="24"/>
@@ -3141,10 +3805,18 @@
       <c r="K131" s="24"/>
     </row>
     <row r="132" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="45"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
+      <c r="A132" s="36">
+        <v>0.16617004629629631</v>
+      </c>
+      <c r="B132" s="24">
+        <v>40</v>
+      </c>
+      <c r="C132" s="24">
+        <v>0</v>
+      </c>
+      <c r="D132" s="24">
+        <v>7</v>
+      </c>
       <c r="E132" s="24"/>
       <c r="F132" s="24"/>
       <c r="G132" s="24"/>
@@ -3154,10 +3826,18 @@
       <c r="K132" s="24"/>
     </row>
     <row r="133" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="45"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
+      <c r="A133" s="36">
+        <v>0.1661689699074074</v>
+      </c>
+      <c r="B133" s="24">
+        <v>39</v>
+      </c>
+      <c r="C133" s="24">
+        <v>0</v>
+      </c>
+      <c r="D133" s="24">
+        <v>7</v>
+      </c>
       <c r="E133" s="24"/>
       <c r="F133" s="24"/>
       <c r="G133" s="24"/>
@@ -3167,10 +3847,18 @@
       <c r="K133" s="24"/>
     </row>
     <row r="134" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="45"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
+      <c r="A134" s="36">
+        <v>0.16616762731481483</v>
+      </c>
+      <c r="B134" s="24">
+        <v>38</v>
+      </c>
+      <c r="C134" s="24">
+        <v>0</v>
+      </c>
+      <c r="D134" s="24">
+        <v>7</v>
+      </c>
       <c r="E134" s="24"/>
       <c r="F134" s="24"/>
       <c r="G134" s="24"/>
@@ -3180,10 +3868,18 @@
       <c r="K134" s="24"/>
     </row>
     <row r="135" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="45"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
+      <c r="A135" s="36">
+        <v>0.16616651620370371</v>
+      </c>
+      <c r="B135" s="24">
+        <v>38</v>
+      </c>
+      <c r="C135" s="24">
+        <v>0</v>
+      </c>
+      <c r="D135" s="24">
+        <v>6</v>
+      </c>
       <c r="E135" s="24"/>
       <c r="F135" s="24"/>
       <c r="G135" s="24"/>
@@ -3193,10 +3889,18 @@
       <c r="K135" s="24"/>
     </row>
     <row r="136" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="45"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
+      <c r="A136" s="36">
+        <v>0.16616516203703705</v>
+      </c>
+      <c r="B136" s="24">
+        <v>38</v>
+      </c>
+      <c r="C136" s="24">
+        <v>0</v>
+      </c>
+      <c r="D136" s="24">
+        <v>6</v>
+      </c>
       <c r="E136" s="24"/>
       <c r="F136" s="24"/>
       <c r="G136" s="24"/>
@@ -3206,10 +3910,18 @@
       <c r="K136" s="24"/>
     </row>
     <row r="137" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="45"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
+      <c r="A137" s="36">
+        <v>0.16616413194444446</v>
+      </c>
+      <c r="B137" s="24">
+        <v>38</v>
+      </c>
+      <c r="C137" s="24">
+        <v>0</v>
+      </c>
+      <c r="D137" s="24">
+        <v>7</v>
+      </c>
       <c r="E137" s="24"/>
       <c r="F137" s="24"/>
       <c r="G137" s="24"/>
@@ -3219,10 +3931,18 @@
       <c r="K137" s="24"/>
     </row>
     <row r="138" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="45"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
+      <c r="A138" s="36">
+        <v>0.16616305555555555</v>
+      </c>
+      <c r="B138" s="24">
+        <v>38</v>
+      </c>
+      <c r="C138" s="24">
+        <v>0</v>
+      </c>
+      <c r="D138" s="24">
+        <v>5</v>
+      </c>
       <c r="E138" s="24"/>
       <c r="F138" s="24"/>
       <c r="G138" s="24"/>
@@ -3232,10 +3952,18 @@
       <c r="K138" s="24"/>
     </row>
     <row r="139" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="45"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
+      <c r="A139" s="36">
+        <v>0.16616174768518518</v>
+      </c>
+      <c r="B139" s="24">
+        <v>36</v>
+      </c>
+      <c r="C139" s="24">
+        <v>0</v>
+      </c>
+      <c r="D139" s="24">
+        <v>6</v>
+      </c>
       <c r="E139" s="24"/>
       <c r="F139" s="24"/>
       <c r="G139" s="24"/>
@@ -3245,10 +3973,18 @@
       <c r="K139" s="24"/>
     </row>
     <row r="140" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="45"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
+      <c r="A140" s="36">
+        <v>0.16616069444444445</v>
+      </c>
+      <c r="B140" s="24">
+        <v>32</v>
+      </c>
+      <c r="C140" s="24">
+        <v>0</v>
+      </c>
+      <c r="D140" s="24">
+        <v>5</v>
+      </c>
       <c r="E140" s="24"/>
       <c r="F140" s="24"/>
       <c r="G140" s="24"/>
@@ -3258,10 +3994,18 @@
       <c r="K140" s="24"/>
     </row>
     <row r="141" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="45"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
+      <c r="A141" s="36">
+        <v>0.16615951388888889</v>
+      </c>
+      <c r="B141" s="24">
+        <v>30</v>
+      </c>
+      <c r="C141" s="24">
+        <v>0</v>
+      </c>
+      <c r="D141" s="24">
+        <v>6</v>
+      </c>
       <c r="E141" s="24"/>
       <c r="F141" s="24"/>
       <c r="G141" s="24"/>
@@ -3271,10 +4015,18 @@
       <c r="K141" s="24"/>
     </row>
     <row r="142" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="45"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
+      <c r="A142" s="36">
+        <v>0.16615829861111112</v>
+      </c>
+      <c r="B142" s="24">
+        <v>19</v>
+      </c>
+      <c r="C142" s="24">
+        <v>0</v>
+      </c>
+      <c r="D142" s="24">
+        <v>5</v>
+      </c>
       <c r="E142" s="24"/>
       <c r="F142" s="24"/>
       <c r="G142" s="24"/>
@@ -3284,10 +4036,18 @@
       <c r="K142" s="24"/>
     </row>
     <row r="143" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="45"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
+      <c r="A143" s="36">
+        <v>0.1661571412037037</v>
+      </c>
+      <c r="B143" s="24">
+        <v>22</v>
+      </c>
+      <c r="C143" s="24">
+        <v>0</v>
+      </c>
+      <c r="D143" s="24">
+        <v>6</v>
+      </c>
       <c r="E143" s="24"/>
       <c r="F143" s="24"/>
       <c r="G143" s="24"/>
@@ -3297,10 +4057,18 @@
       <c r="K143" s="24"/>
     </row>
     <row r="144" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="45"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
+      <c r="A144" s="36">
+        <v>0.16615592592592593</v>
+      </c>
+      <c r="B144" s="24">
+        <v>38</v>
+      </c>
+      <c r="C144" s="24">
+        <v>0</v>
+      </c>
+      <c r="D144" s="24">
+        <v>6</v>
+      </c>
       <c r="E144" s="24"/>
       <c r="F144" s="24"/>
       <c r="G144" s="24"/>
@@ -3310,10 +4078,18 @@
       <c r="K144" s="24"/>
     </row>
     <row r="145" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="45"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
+      <c r="A145" s="36">
+        <v>0.16615479166666666</v>
+      </c>
+      <c r="B145" s="24">
+        <v>38</v>
+      </c>
+      <c r="C145" s="24">
+        <v>0</v>
+      </c>
+      <c r="D145" s="24">
+        <v>5</v>
+      </c>
       <c r="E145" s="24"/>
       <c r="F145" s="24"/>
       <c r="G145" s="24"/>
@@ -3323,10 +4099,18 @@
       <c r="K145" s="24"/>
     </row>
     <row r="146" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="45"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
+      <c r="A146" s="36">
+        <v>0.1661535648148148</v>
+      </c>
+      <c r="B146" s="24">
+        <v>39</v>
+      </c>
+      <c r="C146" s="24">
+        <v>0</v>
+      </c>
+      <c r="D146" s="24">
+        <v>6</v>
+      </c>
       <c r="E146" s="24"/>
       <c r="F146" s="24"/>
       <c r="G146" s="24"/>
@@ -3336,10 +4120,18 @@
       <c r="K146" s="24"/>
     </row>
     <row r="147" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="45"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
+      <c r="A147" s="36">
+        <v>0.16615246527777777</v>
+      </c>
+      <c r="B147" s="24">
+        <v>38</v>
+      </c>
+      <c r="C147" s="24">
+        <v>0</v>
+      </c>
+      <c r="D147" s="24">
+        <v>7</v>
+      </c>
       <c r="E147" s="24"/>
       <c r="F147" s="24"/>
       <c r="G147" s="24"/>
@@ -3349,10 +4141,18 @@
       <c r="K147" s="24"/>
     </row>
     <row r="148" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="45"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
+      <c r="A148" s="36">
+        <v>0.16615119212962962</v>
+      </c>
+      <c r="B148" s="24">
+        <v>37</v>
+      </c>
+      <c r="C148" s="24">
+        <v>0</v>
+      </c>
+      <c r="D148" s="24">
+        <v>6</v>
+      </c>
       <c r="E148" s="24"/>
       <c r="F148" s="24"/>
       <c r="G148" s="24"/>
@@ -3362,10 +4162,18 @@
       <c r="K148" s="24"/>
     </row>
     <row r="149" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="45"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
+      <c r="A149" s="36">
+        <v>0.16615010416666667</v>
+      </c>
+      <c r="B149" s="24">
+        <v>37</v>
+      </c>
+      <c r="C149" s="24">
+        <v>0</v>
+      </c>
+      <c r="D149" s="24">
+        <v>6</v>
+      </c>
       <c r="E149" s="24"/>
       <c r="F149" s="24"/>
       <c r="G149" s="24"/>
@@ -3375,10 +4183,18 @@
       <c r="K149" s="24"/>
     </row>
     <row r="150" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="45"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
+      <c r="A150" s="36">
+        <v>0.1661490162037037</v>
+      </c>
+      <c r="B150" s="24">
+        <v>37</v>
+      </c>
+      <c r="C150" s="24">
+        <v>0</v>
+      </c>
+      <c r="D150" s="24">
+        <v>6</v>
+      </c>
       <c r="E150" s="24"/>
       <c r="F150" s="24"/>
       <c r="G150" s="24"/>
@@ -3388,10 +4204,18 @@
       <c r="K150" s="24"/>
     </row>
     <row r="151" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="45"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="24"/>
+      <c r="A151" s="36">
+        <v>0.16614775462962963</v>
+      </c>
+      <c r="B151" s="24">
+        <v>36</v>
+      </c>
+      <c r="C151" s="24">
+        <v>0</v>
+      </c>
+      <c r="D151" s="24">
+        <v>6</v>
+      </c>
       <c r="E151" s="24"/>
       <c r="F151" s="24"/>
       <c r="G151" s="24"/>
@@ -3401,10 +4225,18 @@
       <c r="K151" s="24"/>
     </row>
     <row r="152" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="45"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
+      <c r="A152" s="36">
+        <v>0.1661466550925926</v>
+      </c>
+      <c r="B152" s="24">
+        <v>38</v>
+      </c>
+      <c r="C152" s="24">
+        <v>0</v>
+      </c>
+      <c r="D152" s="24">
+        <v>6</v>
+      </c>
       <c r="E152" s="24"/>
       <c r="F152" s="24"/>
       <c r="G152" s="24"/>
@@ -3414,10 +4246,18 @@
       <c r="K152" s="24"/>
     </row>
     <row r="153" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="45"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
+      <c r="A153" s="36">
+        <v>0.16614546296296298</v>
+      </c>
+      <c r="B153" s="24">
+        <v>38</v>
+      </c>
+      <c r="C153" s="24">
+        <v>0</v>
+      </c>
+      <c r="D153" s="24">
+        <v>6</v>
+      </c>
       <c r="E153" s="24"/>
       <c r="F153" s="24"/>
       <c r="G153" s="24"/>
@@ -3427,10 +4267,18 @@
       <c r="K153" s="24"/>
     </row>
     <row r="154" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="45"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="24"/>
+      <c r="A154" s="36">
+        <v>0.16614429398148148</v>
+      </c>
+      <c r="B154" s="24">
+        <v>39</v>
+      </c>
+      <c r="C154" s="24">
+        <v>0</v>
+      </c>
+      <c r="D154" s="24">
+        <v>7</v>
+      </c>
       <c r="E154" s="24"/>
       <c r="F154" s="24"/>
       <c r="G154" s="24"/>
@@ -3440,10 +4288,18 @@
       <c r="K154" s="24"/>
     </row>
     <row r="155" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="45"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
+      <c r="A155" s="36">
+        <v>0.16614315972222221</v>
+      </c>
+      <c r="B155" s="24">
+        <v>42</v>
+      </c>
+      <c r="C155" s="24">
+        <v>0</v>
+      </c>
+      <c r="D155" s="24">
+        <v>7</v>
+      </c>
       <c r="E155" s="24"/>
       <c r="F155" s="24"/>
       <c r="G155" s="24"/>
@@ -3453,10 +4309,18 @@
       <c r="K155" s="24"/>
     </row>
     <row r="156" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="45"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
+      <c r="A156" s="36">
+        <v>0.16614201388888888</v>
+      </c>
+      <c r="B156" s="24">
+        <v>48</v>
+      </c>
+      <c r="C156" s="24">
+        <v>0</v>
+      </c>
+      <c r="D156" s="24">
+        <v>7</v>
+      </c>
       <c r="E156" s="24"/>
       <c r="F156" s="24"/>
       <c r="G156" s="24"/>
@@ -3466,10 +4330,18 @@
       <c r="K156" s="24"/>
     </row>
     <row r="157" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="45"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
+      <c r="A157" s="36">
+        <v>0.16614087962962962</v>
+      </c>
+      <c r="B157" s="24">
+        <v>51</v>
+      </c>
+      <c r="C157" s="24">
+        <v>0</v>
+      </c>
+      <c r="D157" s="24">
+        <v>7</v>
+      </c>
       <c r="E157" s="24"/>
       <c r="F157" s="24"/>
       <c r="G157" s="24"/>
@@ -3479,10 +4351,18 @@
       <c r="K157" s="24"/>
     </row>
     <row r="158" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="45"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="24"/>
+      <c r="A158" s="36">
+        <v>0.1661395486111111</v>
+      </c>
+      <c r="B158" s="24">
+        <v>49</v>
+      </c>
+      <c r="C158" s="24">
+        <v>0</v>
+      </c>
+      <c r="D158" s="24">
+        <v>7</v>
+      </c>
       <c r="E158" s="24"/>
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
@@ -3492,10 +4372,18 @@
       <c r="K158" s="24"/>
     </row>
     <row r="159" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="45"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
+      <c r="A159" s="36">
+        <v>0.16613847222222222</v>
+      </c>
+      <c r="B159" s="24">
+        <v>55</v>
+      </c>
+      <c r="C159" s="24">
+        <v>0</v>
+      </c>
+      <c r="D159" s="24">
+        <v>7</v>
+      </c>
       <c r="E159" s="24"/>
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
@@ -3505,10 +4393,18 @@
       <c r="K159" s="24"/>
     </row>
     <row r="160" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="45"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
+      <c r="A160" s="36">
+        <v>0.16613729166666669</v>
+      </c>
+      <c r="B160" s="24">
+        <v>44</v>
+      </c>
+      <c r="C160" s="24">
+        <v>0</v>
+      </c>
+      <c r="D160" s="24">
+        <v>9</v>
+      </c>
       <c r="E160" s="24"/>
       <c r="F160" s="24"/>
       <c r="G160" s="24"/>
@@ -3518,10 +4414,18 @@
       <c r="K160" s="24"/>
     </row>
     <row r="161" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="45"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
+      <c r="A161" s="36">
+        <v>0.16613614583333333</v>
+      </c>
+      <c r="B161" s="24">
+        <v>42</v>
+      </c>
+      <c r="C161" s="24">
+        <v>0</v>
+      </c>
+      <c r="D161" s="24">
+        <v>9</v>
+      </c>
       <c r="E161" s="24"/>
       <c r="F161" s="24"/>
       <c r="G161" s="24"/>
@@ -3531,10 +4435,18 @@
       <c r="K161" s="24"/>
     </row>
     <row r="162" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="45"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="24"/>
+      <c r="A162" s="36">
+        <v>0.16613494212962962</v>
+      </c>
+      <c r="B162" s="24">
+        <v>36</v>
+      </c>
+      <c r="C162" s="24">
+        <v>0</v>
+      </c>
+      <c r="D162" s="24">
+        <v>8</v>
+      </c>
       <c r="E162" s="24"/>
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
@@ -3544,10 +4456,18 @@
       <c r="K162" s="24"/>
     </row>
     <row r="163" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="45"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="24"/>
+      <c r="A163" s="36">
+        <v>0.16613380787037035</v>
+      </c>
+      <c r="B163" s="24">
+        <v>34</v>
+      </c>
+      <c r="C163" s="24">
+        <v>0</v>
+      </c>
+      <c r="D163" s="24">
+        <v>8</v>
+      </c>
       <c r="E163" s="24"/>
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
@@ -3557,10 +4477,18 @@
       <c r="K163" s="24"/>
     </row>
     <row r="164" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="45"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="24"/>
+      <c r="A164" s="36">
+        <v>0.16613255787037037</v>
+      </c>
+      <c r="B164" s="24">
+        <v>29</v>
+      </c>
+      <c r="C164" s="24">
+        <v>0</v>
+      </c>
+      <c r="D164" s="24">
+        <v>9</v>
+      </c>
       <c r="E164" s="24"/>
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
@@ -3570,10 +4498,18 @@
       <c r="K164" s="24"/>
     </row>
     <row r="165" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="45"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24"/>
+      <c r="A165" s="36">
+        <v>0.1661314699074074</v>
+      </c>
+      <c r="B165" s="24">
+        <v>38</v>
+      </c>
+      <c r="C165" s="24">
+        <v>0</v>
+      </c>
+      <c r="D165" s="24">
+        <v>11</v>
+      </c>
       <c r="E165" s="24"/>
       <c r="F165" s="24"/>
       <c r="G165" s="24"/>
@@ -3583,10 +4519,18 @@
       <c r="K165" s="24"/>
     </row>
     <row r="166" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="45"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="24"/>
+      <c r="A166" s="36">
+        <v>0.16613038194444446</v>
+      </c>
+      <c r="B166" s="24">
+        <v>35</v>
+      </c>
+      <c r="C166" s="24">
+        <v>0</v>
+      </c>
+      <c r="D166" s="24">
+        <v>12</v>
+      </c>
       <c r="E166" s="24"/>
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
@@ -3596,10 +4540,18 @@
       <c r="K166" s="24"/>
     </row>
     <row r="167" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="45"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="24"/>
+      <c r="A167" s="36">
+        <v>0.16612912037037036</v>
+      </c>
+      <c r="B167" s="24">
+        <v>42</v>
+      </c>
+      <c r="C167" s="24">
+        <v>0</v>
+      </c>
+      <c r="D167" s="24">
+        <v>18</v>
+      </c>
       <c r="E167" s="24"/>
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
@@ -3609,7 +4561,7 @@
       <c r="K167" s="24"/>
     </row>
     <row r="168" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="45"/>
+      <c r="A168" s="36"/>
       <c r="B168" s="24"/>
       <c r="C168" s="24"/>
       <c r="D168" s="24"/>
@@ -3622,7 +4574,7 @@
       <c r="K168" s="24"/>
     </row>
     <row r="169" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="45"/>
+      <c r="A169" s="36"/>
       <c r="B169" s="24"/>
       <c r="C169" s="24"/>
       <c r="D169" s="24"/>
@@ -3635,7 +4587,7 @@
       <c r="K169" s="24"/>
     </row>
     <row r="170" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="45"/>
+      <c r="A170" s="36"/>
       <c r="B170" s="24"/>
       <c r="C170" s="24"/>
       <c r="D170" s="24"/>
@@ -3648,7 +4600,7 @@
       <c r="K170" s="24"/>
     </row>
     <row r="171" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="45"/>
+      <c r="A171" s="36"/>
       <c r="B171" s="24"/>
       <c r="C171" s="24"/>
       <c r="D171" s="24"/>
@@ -3661,7 +4613,7 @@
       <c r="K171" s="24"/>
     </row>
     <row r="172" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="45"/>
+      <c r="A172" s="36"/>
       <c r="B172" s="24"/>
       <c r="C172" s="24"/>
       <c r="D172" s="24"/>
@@ -3674,7 +4626,7 @@
       <c r="K172" s="24"/>
     </row>
     <row r="173" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="45"/>
+      <c r="A173" s="36"/>
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
       <c r="D173" s="24"/>
@@ -3687,7 +4639,7 @@
       <c r="K173" s="24"/>
     </row>
     <row r="174" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="45"/>
+      <c r="A174" s="36"/>
       <c r="B174" s="24"/>
       <c r="C174" s="24"/>
       <c r="D174" s="24"/>
@@ -3700,7 +4652,7 @@
       <c r="K174" s="24"/>
     </row>
     <row r="175" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="45"/>
+      <c r="A175" s="36"/>
       <c r="B175" s="24"/>
       <c r="C175" s="24"/>
       <c r="D175" s="24"/>
@@ -3713,7 +4665,7 @@
       <c r="K175" s="24"/>
     </row>
     <row r="176" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="45"/>
+      <c r="A176" s="36"/>
       <c r="B176" s="24"/>
       <c r="C176" s="24"/>
       <c r="D176" s="24"/>
@@ -3726,7 +4678,7 @@
       <c r="K176" s="24"/>
     </row>
     <row r="177" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="45"/>
+      <c r="A177" s="36"/>
       <c r="B177" s="24"/>
       <c r="C177" s="24"/>
       <c r="D177" s="24"/>
@@ -3739,7 +4691,7 @@
       <c r="K177" s="24"/>
     </row>
     <row r="178" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="45"/>
+      <c r="A178" s="36"/>
       <c r="B178" s="24"/>
       <c r="C178" s="24"/>
       <c r="D178" s="24"/>
@@ -3752,7 +4704,7 @@
       <c r="K178" s="24"/>
     </row>
     <row r="179" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="45"/>
+      <c r="A179" s="36"/>
       <c r="B179" s="24"/>
       <c r="C179" s="24"/>
       <c r="D179" s="24"/>
@@ -3765,7 +4717,7 @@
       <c r="K179" s="24"/>
     </row>
     <row r="180" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="45"/>
+      <c r="A180" s="36"/>
       <c r="B180" s="24"/>
       <c r="C180" s="24"/>
       <c r="D180" s="24"/>
@@ -3778,7 +4730,7 @@
       <c r="K180" s="24"/>
     </row>
     <row r="181" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="45"/>
+      <c r="A181" s="36"/>
       <c r="B181" s="24"/>
       <c r="C181" s="24"/>
       <c r="D181" s="24"/>
@@ -3791,7 +4743,7 @@
       <c r="K181" s="24"/>
     </row>
     <row r="182" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="45"/>
+      <c r="A182" s="36"/>
       <c r="B182" s="24"/>
       <c r="C182" s="24"/>
       <c r="D182" s="24"/>
@@ -3804,7 +4756,7 @@
       <c r="K182" s="24"/>
     </row>
     <row r="183" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="45"/>
+      <c r="A183" s="36"/>
       <c r="B183" s="24"/>
       <c r="C183" s="24"/>
       <c r="D183" s="24"/>
@@ -3817,7 +4769,7 @@
       <c r="K183" s="24"/>
     </row>
     <row r="184" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="45"/>
+      <c r="A184" s="36"/>
       <c r="B184" s="24"/>
       <c r="C184" s="24"/>
       <c r="D184" s="24"/>
@@ -3830,7 +4782,7 @@
       <c r="K184" s="24"/>
     </row>
     <row r="185" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="45"/>
+      <c r="A185" s="36"/>
       <c r="B185" s="24"/>
       <c r="C185" s="24"/>
       <c r="D185" s="24"/>
@@ -3843,7 +4795,7 @@
       <c r="K185" s="24"/>
     </row>
     <row r="186" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="45"/>
+      <c r="A186" s="36"/>
       <c r="B186" s="24"/>
       <c r="C186" s="24"/>
       <c r="D186" s="24"/>
@@ -3856,7 +4808,7 @@
       <c r="K186" s="24"/>
     </row>
     <row r="187" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="45"/>
+      <c r="A187" s="36"/>
       <c r="B187" s="24"/>
       <c r="C187" s="24"/>
       <c r="D187" s="24"/>
@@ -3869,7 +4821,7 @@
       <c r="K187" s="24"/>
     </row>
     <row r="188" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="45"/>
+      <c r="A188" s="36"/>
       <c r="B188" s="24"/>
       <c r="C188" s="24"/>
       <c r="D188" s="24"/>
@@ -3882,7 +4834,7 @@
       <c r="K188" s="24"/>
     </row>
     <row r="189" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="45"/>
+      <c r="A189" s="36"/>
       <c r="B189" s="24"/>
       <c r="C189" s="24"/>
       <c r="D189" s="24"/>
@@ -3895,7 +4847,7 @@
       <c r="K189" s="24"/>
     </row>
     <row r="190" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="45"/>
+      <c r="A190" s="36"/>
       <c r="B190" s="24"/>
       <c r="C190" s="24"/>
       <c r="D190" s="24"/>
@@ -3908,7 +4860,7 @@
       <c r="K190" s="24"/>
     </row>
     <row r="191" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="45"/>
+      <c r="A191" s="36"/>
       <c r="B191" s="24"/>
       <c r="C191" s="24"/>
       <c r="D191" s="24"/>
@@ -3921,7 +4873,7 @@
       <c r="K191" s="24"/>
     </row>
     <row r="192" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="45"/>
+      <c r="A192" s="36"/>
       <c r="B192" s="24"/>
       <c r="C192" s="24"/>
       <c r="D192" s="24"/>
@@ -3934,7 +4886,7 @@
       <c r="K192" s="24"/>
     </row>
     <row r="193" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="45"/>
+      <c r="A193" s="36"/>
       <c r="B193" s="24"/>
       <c r="C193" s="24"/>
       <c r="D193" s="24"/>
@@ -3947,7 +4899,7 @@
       <c r="K193" s="24"/>
     </row>
     <row r="194" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="45"/>
+      <c r="A194" s="36"/>
       <c r="B194" s="24"/>
       <c r="C194" s="24"/>
       <c r="D194" s="24"/>
@@ -3960,7 +4912,7 @@
       <c r="K194" s="24"/>
     </row>
     <row r="195" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="45"/>
+      <c r="A195" s="36"/>
       <c r="B195" s="24"/>
       <c r="C195" s="24"/>
       <c r="D195" s="24"/>
@@ -3973,7 +4925,7 @@
       <c r="K195" s="24"/>
     </row>
     <row r="196" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="45"/>
+      <c r="A196" s="36"/>
       <c r="B196" s="24"/>
       <c r="C196" s="24"/>
       <c r="D196" s="24"/>
@@ -3986,7 +4938,7 @@
       <c r="K196" s="24"/>
     </row>
     <row r="197" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="45"/>
+      <c r="A197" s="36"/>
       <c r="B197" s="24"/>
       <c r="C197" s="24"/>
       <c r="D197" s="24"/>
@@ -3999,7 +4951,7 @@
       <c r="K197" s="24"/>
     </row>
     <row r="198" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="45"/>
+      <c r="A198" s="36"/>
       <c r="B198" s="24"/>
       <c r="C198" s="24"/>
       <c r="D198" s="24"/>
@@ -4012,7 +4964,7 @@
       <c r="K198" s="24"/>
     </row>
     <row r="199" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="45"/>
+      <c r="A199" s="36"/>
       <c r="B199" s="24"/>
       <c r="C199" s="24"/>
       <c r="D199" s="24"/>
@@ -4025,7 +4977,7 @@
       <c r="K199" s="24"/>
     </row>
     <row r="200" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="45"/>
+      <c r="A200" s="36"/>
       <c r="B200" s="24"/>
       <c r="C200" s="24"/>
       <c r="D200" s="24"/>
@@ -4038,7 +4990,7 @@
       <c r="K200" s="24"/>
     </row>
     <row r="201" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="45"/>
+      <c r="A201" s="36"/>
       <c r="B201" s="24"/>
       <c r="C201" s="24"/>
       <c r="D201" s="24"/>
@@ -4051,7 +5003,7 @@
       <c r="K201" s="24"/>
     </row>
     <row r="202" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="45"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="24"/>
       <c r="C202" s="24"/>
       <c r="D202" s="24"/>
@@ -4064,7 +5016,7 @@
       <c r="K202" s="24"/>
     </row>
     <row r="203" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="45"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="24"/>
       <c r="C203" s="24"/>
       <c r="D203" s="24"/>
@@ -4077,7 +5029,7 @@
       <c r="K203" s="24"/>
     </row>
     <row r="204" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="45"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="24"/>
       <c r="C204" s="24"/>
       <c r="D204" s="24"/>
@@ -4090,7 +5042,7 @@
       <c r="K204" s="24"/>
     </row>
     <row r="205" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="45"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="24"/>
       <c r="C205" s="24"/>
       <c r="D205" s="24"/>
@@ -4103,7 +5055,7 @@
       <c r="K205" s="24"/>
     </row>
     <row r="206" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="45"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="24"/>
       <c r="C206" s="24"/>
       <c r="D206" s="24"/>
@@ -4116,7 +5068,7 @@
       <c r="K206" s="24"/>
     </row>
     <row r="207" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="45"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="24"/>
       <c r="C207" s="24"/>
       <c r="D207" s="24"/>
@@ -4129,7 +5081,7 @@
       <c r="K207" s="24"/>
     </row>
     <row r="208" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="45"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="24"/>
       <c r="C208" s="24"/>
       <c r="D208" s="24"/>
@@ -4142,7 +5094,7 @@
       <c r="K208" s="24"/>
     </row>
     <row r="209" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="45"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="24"/>
       <c r="C209" s="24"/>
       <c r="D209" s="24"/>
@@ -4155,7 +5107,7 @@
       <c r="K209" s="24"/>
     </row>
     <row r="210" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="45"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="24"/>
       <c r="C210" s="24"/>
       <c r="D210" s="24"/>
@@ -4168,7 +5120,7 @@
       <c r="K210" s="24"/>
     </row>
     <row r="211" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="45"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="24"/>
       <c r="C211" s="24"/>
       <c r="D211" s="24"/>
@@ -4181,7 +5133,7 @@
       <c r="K211" s="24"/>
     </row>
     <row r="212" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="45"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="24"/>
       <c r="C212" s="24"/>
       <c r="D212" s="24"/>
@@ -4194,7 +5146,7 @@
       <c r="K212" s="24"/>
     </row>
     <row r="213" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="45"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="24"/>
       <c r="C213" s="24"/>
       <c r="D213" s="24"/>
@@ -4207,7 +5159,7 @@
       <c r="K213" s="24"/>
     </row>
     <row r="214" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="45"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="24"/>
       <c r="C214" s="24"/>
       <c r="D214" s="24"/>
@@ -4220,7 +5172,7 @@
       <c r="K214" s="24"/>
     </row>
     <row r="215" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="45"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="24"/>
       <c r="C215" s="24"/>
       <c r="D215" s="24"/>
@@ -4233,7 +5185,7 @@
       <c r="K215" s="24"/>
     </row>
     <row r="216" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="45"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="24"/>
       <c r="C216" s="24"/>
       <c r="D216" s="24"/>
@@ -4246,7 +5198,7 @@
       <c r="K216" s="24"/>
     </row>
     <row r="217" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="45"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="24"/>
       <c r="C217" s="24"/>
       <c r="D217" s="24"/>
@@ -4259,7 +5211,7 @@
       <c r="K217" s="24"/>
     </row>
     <row r="218" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="45"/>
+      <c r="A218" s="31"/>
       <c r="B218" s="24"/>
       <c r="C218" s="24"/>
       <c r="D218" s="24"/>
@@ -4272,7 +5224,7 @@
       <c r="K218" s="24"/>
     </row>
     <row r="219" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="45"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="24"/>
       <c r="C219" s="24"/>
       <c r="D219" s="24"/>
@@ -4285,7 +5237,7 @@
       <c r="K219" s="24"/>
     </row>
     <row r="220" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="45"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="24"/>
       <c r="C220" s="24"/>
       <c r="D220" s="24"/>
@@ -4298,7 +5250,7 @@
       <c r="K220" s="24"/>
     </row>
     <row r="221" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="45"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="24"/>
       <c r="C221" s="24"/>
       <c r="D221" s="24"/>
@@ -4311,7 +5263,7 @@
       <c r="K221" s="24"/>
     </row>
     <row r="222" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="45"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="24"/>
       <c r="C222" s="24"/>
       <c r="D222" s="24"/>
@@ -4324,7 +5276,7 @@
       <c r="K222" s="24"/>
     </row>
     <row r="223" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="45"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="24"/>
       <c r="C223" s="24"/>
       <c r="D223" s="24"/>
@@ -4337,7 +5289,7 @@
       <c r="K223" s="24"/>
     </row>
     <row r="224" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="45"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="24"/>
       <c r="C224" s="24"/>
       <c r="D224" s="24"/>
@@ -4350,7 +5302,7 @@
       <c r="K224" s="24"/>
     </row>
     <row r="225" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="45"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
       <c r="D225" s="24"/>
@@ -4363,7 +5315,7 @@
       <c r="K225" s="24"/>
     </row>
     <row r="226" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="45"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="24"/>
       <c r="C226" s="24"/>
       <c r="D226" s="24"/>
@@ -4376,7 +5328,7 @@
       <c r="K226" s="24"/>
     </row>
     <row r="227" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="45"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="24"/>
       <c r="C227" s="24"/>
       <c r="D227" s="24"/>
@@ -4389,7 +5341,7 @@
       <c r="K227" s="24"/>
     </row>
     <row r="228" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="45"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="24"/>
       <c r="C228" s="24"/>
       <c r="D228" s="24"/>
@@ -4402,7 +5354,7 @@
       <c r="K228" s="24"/>
     </row>
     <row r="229" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="45"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
       <c r="D229" s="24"/>
@@ -4415,7 +5367,7 @@
       <c r="K229" s="24"/>
     </row>
     <row r="230" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="45"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="24"/>
       <c r="C230" s="24"/>
       <c r="D230" s="24"/>
@@ -4428,7 +5380,7 @@
       <c r="K230" s="24"/>
     </row>
     <row r="231" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="45"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
       <c r="D231" s="24"/>
@@ -4441,7 +5393,7 @@
       <c r="K231" s="24"/>
     </row>
     <row r="232" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="45"/>
+      <c r="A232" s="31"/>
       <c r="B232" s="24"/>
       <c r="C232" s="24"/>
       <c r="D232" s="24"/>
@@ -4454,7 +5406,7 @@
       <c r="K232" s="24"/>
     </row>
     <row r="233" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="45"/>
+      <c r="A233" s="31"/>
       <c r="B233" s="24"/>
       <c r="C233" s="24"/>
       <c r="D233" s="24"/>
@@ -4467,7 +5419,7 @@
       <c r="K233" s="24"/>
     </row>
     <row r="234" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="45"/>
+      <c r="A234" s="31"/>
       <c r="B234" s="24"/>
       <c r="C234" s="24"/>
       <c r="D234" s="24"/>
@@ -4480,7 +5432,7 @@
       <c r="K234" s="24"/>
     </row>
     <row r="235" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="45"/>
+      <c r="A235" s="31"/>
       <c r="B235" s="24"/>
       <c r="C235" s="24"/>
       <c r="D235" s="24"/>
@@ -4493,7 +5445,7 @@
       <c r="K235" s="24"/>
     </row>
     <row r="236" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="45"/>
+      <c r="A236" s="31"/>
       <c r="B236" s="24"/>
       <c r="C236" s="24"/>
       <c r="D236" s="24"/>
@@ -4506,7 +5458,7 @@
       <c r="K236" s="24"/>
     </row>
     <row r="237" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="45"/>
+      <c r="A237" s="31"/>
       <c r="B237" s="24"/>
       <c r="C237" s="24"/>
       <c r="D237" s="24"/>
@@ -4519,7 +5471,7 @@
       <c r="K237" s="24"/>
     </row>
     <row r="238" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="45"/>
+      <c r="A238" s="31"/>
       <c r="B238" s="24"/>
       <c r="C238" s="24"/>
       <c r="D238" s="24"/>
@@ -4532,7 +5484,7 @@
       <c r="K238" s="24"/>
     </row>
     <row r="239" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="45"/>
+      <c r="A239" s="31"/>
       <c r="B239" s="24"/>
       <c r="C239" s="24"/>
       <c r="D239" s="24"/>
@@ -4545,7 +5497,7 @@
       <c r="K239" s="24"/>
     </row>
     <row r="240" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="45"/>
+      <c r="A240" s="31"/>
       <c r="B240" s="24"/>
       <c r="C240" s="24"/>
       <c r="D240" s="24"/>
@@ -4558,7 +5510,7 @@
       <c r="K240" s="24"/>
     </row>
     <row r="241" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="45"/>
+      <c r="A241" s="31"/>
       <c r="B241" s="24"/>
       <c r="C241" s="24"/>
       <c r="D241" s="24"/>
@@ -4571,7 +5523,7 @@
       <c r="K241" s="24"/>
     </row>
     <row r="242" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="45"/>
+      <c r="A242" s="31"/>
       <c r="B242" s="24"/>
       <c r="C242" s="24"/>
       <c r="D242" s="24"/>
@@ -4584,7 +5536,7 @@
       <c r="K242" s="24"/>
     </row>
     <row r="243" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="45"/>
+      <c r="A243" s="31"/>
       <c r="B243" s="24"/>
       <c r="C243" s="24"/>
       <c r="D243" s="24"/>
@@ -4597,7 +5549,7 @@
       <c r="K243" s="24"/>
     </row>
     <row r="244" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="45"/>
+      <c r="A244" s="31"/>
       <c r="B244" s="24"/>
       <c r="C244" s="24"/>
       <c r="D244" s="24"/>
@@ -4610,7 +5562,7 @@
       <c r="K244" s="24"/>
     </row>
     <row r="245" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="45"/>
+      <c r="A245" s="31"/>
       <c r="B245" s="24"/>
       <c r="C245" s="24"/>
       <c r="D245" s="24"/>
@@ -4623,7 +5575,7 @@
       <c r="K245" s="24"/>
     </row>
     <row r="246" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="45"/>
+      <c r="A246" s="31"/>
       <c r="B246" s="24"/>
       <c r="C246" s="24"/>
       <c r="D246" s="24"/>
@@ -4636,7 +5588,7 @@
       <c r="K246" s="24"/>
     </row>
     <row r="247" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="45"/>
+      <c r="A247" s="31"/>
       <c r="B247" s="24"/>
       <c r="C247" s="24"/>
       <c r="D247" s="24"/>
@@ -4649,7 +5601,7 @@
       <c r="K247" s="24"/>
     </row>
     <row r="248" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="45"/>
+      <c r="A248" s="31"/>
       <c r="B248" s="24"/>
       <c r="C248" s="24"/>
       <c r="D248" s="24"/>
@@ -4662,7 +5614,7 @@
       <c r="K248" s="24"/>
     </row>
     <row r="249" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="45"/>
+      <c r="A249" s="31"/>
       <c r="B249" s="24"/>
       <c r="C249" s="24"/>
       <c r="D249" s="24"/>
@@ -4675,7 +5627,7 @@
       <c r="K249" s="24"/>
     </row>
     <row r="250" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="45"/>
+      <c r="A250" s="31"/>
       <c r="B250" s="24"/>
       <c r="C250" s="24"/>
       <c r="D250" s="24"/>
@@ -4688,7 +5640,7 @@
       <c r="K250" s="24"/>
     </row>
     <row r="251" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="45"/>
+      <c r="A251" s="31"/>
       <c r="B251" s="24"/>
       <c r="C251" s="24"/>
       <c r="D251" s="24"/>
@@ -4701,7 +5653,7 @@
       <c r="K251" s="24"/>
     </row>
     <row r="252" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="45"/>
+      <c r="A252" s="31"/>
       <c r="B252" s="24"/>
       <c r="C252" s="24"/>
       <c r="D252" s="24"/>
@@ -4714,7 +5666,7 @@
       <c r="K252" s="24"/>
     </row>
     <row r="253" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="45"/>
+      <c r="A253" s="31"/>
       <c r="B253" s="24"/>
       <c r="C253" s="24"/>
       <c r="D253" s="24"/>
@@ -4727,7 +5679,7 @@
       <c r="K253" s="24"/>
     </row>
     <row r="254" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="45"/>
+      <c r="A254" s="31"/>
       <c r="B254" s="24"/>
       <c r="C254" s="24"/>
       <c r="D254" s="24"/>
@@ -4740,7 +5692,7 @@
       <c r="K254" s="24"/>
     </row>
     <row r="255" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="45"/>
+      <c r="A255" s="31"/>
       <c r="B255" s="24"/>
       <c r="C255" s="24"/>
       <c r="D255" s="24"/>
@@ -4753,7 +5705,7 @@
       <c r="K255" s="24"/>
     </row>
     <row r="256" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="45"/>
+      <c r="A256" s="31"/>
       <c r="B256" s="24"/>
       <c r="C256" s="24"/>
       <c r="D256" s="24"/>
@@ -4766,7 +5718,7 @@
       <c r="K256" s="24"/>
     </row>
     <row r="257" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="45"/>
+      <c r="A257" s="31"/>
       <c r="B257" s="24"/>
       <c r="C257" s="24"/>
       <c r="D257" s="24"/>
@@ -4779,7 +5731,7 @@
       <c r="K257" s="24"/>
     </row>
     <row r="258" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="45"/>
+      <c r="A258" s="31"/>
       <c r="B258" s="24"/>
       <c r="C258" s="24"/>
       <c r="D258" s="24"/>
@@ -4792,7 +5744,7 @@
       <c r="K258" s="24"/>
     </row>
     <row r="259" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="45"/>
+      <c r="A259" s="31"/>
       <c r="B259" s="24"/>
       <c r="C259" s="24"/>
       <c r="D259" s="24"/>
@@ -4805,7 +5757,7 @@
       <c r="K259" s="24"/>
     </row>
     <row r="260" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="45"/>
+      <c r="A260" s="31"/>
       <c r="B260" s="24"/>
       <c r="C260" s="24"/>
       <c r="D260" s="24"/>
@@ -4818,7 +5770,7 @@
       <c r="K260" s="24"/>
     </row>
     <row r="261" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="45"/>
+      <c r="A261" s="31"/>
       <c r="B261" s="24"/>
       <c r="C261" s="24"/>
       <c r="D261" s="24"/>
@@ -4831,7 +5783,7 @@
       <c r="K261" s="24"/>
     </row>
     <row r="262" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="45"/>
+      <c r="A262" s="31"/>
       <c r="B262" s="24"/>
       <c r="C262" s="24"/>
       <c r="D262" s="24"/>
@@ -4844,7 +5796,7 @@
       <c r="K262" s="24"/>
     </row>
     <row r="263" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="45"/>
+      <c r="A263" s="31"/>
       <c r="B263" s="24"/>
       <c r="C263" s="24"/>
       <c r="D263" s="24"/>
@@ -4857,7 +5809,7 @@
       <c r="K263" s="24"/>
     </row>
     <row r="264" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="45"/>
+      <c r="A264" s="31"/>
       <c r="B264" s="24"/>
       <c r="C264" s="24"/>
       <c r="D264" s="24"/>
@@ -4870,7 +5822,7 @@
       <c r="K264" s="24"/>
     </row>
     <row r="265" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="45"/>
+      <c r="A265" s="31"/>
       <c r="B265" s="24"/>
       <c r="C265" s="24"/>
       <c r="D265" s="24"/>
@@ -4883,7 +5835,7 @@
       <c r="K265" s="24"/>
     </row>
     <row r="266" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="45"/>
+      <c r="A266" s="31"/>
       <c r="B266" s="24"/>
       <c r="C266" s="24"/>
       <c r="D266" s="24"/>
@@ -4896,7 +5848,7 @@
       <c r="K266" s="24"/>
     </row>
     <row r="267" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="45"/>
+      <c r="A267" s="31"/>
       <c r="B267" s="24"/>
       <c r="C267" s="24"/>
       <c r="D267" s="24"/>
@@ -4909,7 +5861,7 @@
       <c r="K267" s="24"/>
     </row>
     <row r="268" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="45"/>
+      <c r="A268" s="31"/>
       <c r="B268" s="24"/>
       <c r="C268" s="24"/>
       <c r="D268" s="24"/>
@@ -4922,7 +5874,7 @@
       <c r="K268" s="24"/>
     </row>
     <row r="269" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="45"/>
+      <c r="A269" s="31"/>
       <c r="B269" s="24"/>
       <c r="C269" s="24"/>
       <c r="D269" s="24"/>
@@ -4935,7 +5887,7 @@
       <c r="K269" s="24"/>
     </row>
     <row r="270" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="45"/>
+      <c r="A270" s="31"/>
       <c r="B270" s="24"/>
       <c r="C270" s="24"/>
       <c r="D270" s="24"/>
@@ -4948,7 +5900,7 @@
       <c r="K270" s="24"/>
     </row>
     <row r="271" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="45"/>
+      <c r="A271" s="31"/>
       <c r="B271" s="24"/>
       <c r="C271" s="24"/>
       <c r="D271" s="24"/>
@@ -4961,7 +5913,7 @@
       <c r="K271" s="24"/>
     </row>
     <row r="272" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="45"/>
+      <c r="A272" s="31"/>
       <c r="B272" s="24"/>
       <c r="C272" s="24"/>
       <c r="D272" s="24"/>
@@ -4974,7 +5926,7 @@
       <c r="K272" s="24"/>
     </row>
     <row r="273" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="45"/>
+      <c r="A273" s="31"/>
       <c r="B273" s="24"/>
       <c r="C273" s="24"/>
       <c r="D273" s="24"/>
@@ -4987,7 +5939,7 @@
       <c r="K273" s="24"/>
     </row>
     <row r="274" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="45"/>
+      <c r="A274" s="31"/>
       <c r="B274" s="24"/>
       <c r="C274" s="24"/>
       <c r="D274" s="24"/>
@@ -5000,7 +5952,7 @@
       <c r="K274" s="24"/>
     </row>
     <row r="275" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="45"/>
+      <c r="A275" s="31"/>
       <c r="B275" s="24"/>
       <c r="C275" s="24"/>
       <c r="D275" s="24"/>
@@ -5013,7 +5965,7 @@
       <c r="K275" s="24"/>
     </row>
     <row r="276" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="45"/>
+      <c r="A276" s="31"/>
       <c r="B276" s="24"/>
       <c r="C276" s="24"/>
       <c r="D276" s="24"/>
@@ -5026,7 +5978,7 @@
       <c r="K276" s="24"/>
     </row>
     <row r="277" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="45"/>
+      <c r="A277" s="31"/>
       <c r="B277" s="24"/>
       <c r="C277" s="24"/>
       <c r="D277" s="24"/>
@@ -5039,7 +5991,7 @@
       <c r="K277" s="24"/>
     </row>
     <row r="278" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="45"/>
+      <c r="A278" s="31"/>
       <c r="B278" s="24"/>
       <c r="C278" s="24"/>
       <c r="D278" s="24"/>
@@ -5052,7 +6004,7 @@
       <c r="K278" s="24"/>
     </row>
     <row r="279" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="45"/>
+      <c r="A279" s="31"/>
       <c r="B279" s="24"/>
       <c r="C279" s="24"/>
       <c r="D279" s="24"/>
@@ -5065,7 +6017,7 @@
       <c r="K279" s="24"/>
     </row>
     <row r="280" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="45"/>
+      <c r="A280" s="31"/>
       <c r="B280" s="24"/>
       <c r="C280" s="24"/>
       <c r="D280" s="24"/>
@@ -5078,7 +6030,7 @@
       <c r="K280" s="24"/>
     </row>
     <row r="281" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="45"/>
+      <c r="A281" s="31"/>
       <c r="B281" s="24"/>
       <c r="C281" s="24"/>
       <c r="D281" s="24"/>
@@ -5091,7 +6043,7 @@
       <c r="K281" s="24"/>
     </row>
     <row r="282" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="45"/>
+      <c r="A282" s="31"/>
       <c r="B282" s="24"/>
       <c r="C282" s="24"/>
       <c r="D282" s="24"/>
@@ -5104,7 +6056,7 @@
       <c r="K282" s="24"/>
     </row>
     <row r="283" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="45"/>
+      <c r="A283" s="31"/>
       <c r="B283" s="24"/>
       <c r="C283" s="24"/>
       <c r="D283" s="24"/>
@@ -5117,7 +6069,7 @@
       <c r="K283" s="24"/>
     </row>
     <row r="284" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="45"/>
+      <c r="A284" s="31"/>
       <c r="B284" s="24"/>
       <c r="C284" s="24"/>
       <c r="D284" s="24"/>
@@ -5130,7 +6082,7 @@
       <c r="K284" s="24"/>
     </row>
     <row r="285" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="45"/>
+      <c r="A285" s="31"/>
       <c r="B285" s="24"/>
       <c r="C285" s="24"/>
       <c r="D285" s="24"/>
@@ -5143,7 +6095,7 @@
       <c r="K285" s="24"/>
     </row>
     <row r="286" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="45"/>
+      <c r="A286" s="31"/>
       <c r="B286" s="24"/>
       <c r="C286" s="24"/>
       <c r="D286" s="24"/>
@@ -5156,7 +6108,7 @@
       <c r="K286" s="24"/>
     </row>
     <row r="287" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="45"/>
+      <c r="A287" s="31"/>
       <c r="B287" s="24"/>
       <c r="C287" s="24"/>
       <c r="D287" s="24"/>
@@ -5169,7 +6121,7 @@
       <c r="K287" s="24"/>
     </row>
     <row r="288" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="45"/>
+      <c r="A288" s="31"/>
       <c r="B288" s="24"/>
       <c r="C288" s="24"/>
       <c r="D288" s="24"/>
@@ -5182,7 +6134,7 @@
       <c r="K288" s="24"/>
     </row>
     <row r="289" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="45"/>
+      <c r="A289" s="31"/>
       <c r="B289" s="24"/>
       <c r="C289" s="24"/>
       <c r="D289" s="24"/>
@@ -5195,7 +6147,7 @@
       <c r="K289" s="24"/>
     </row>
     <row r="290" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="45"/>
+      <c r="A290" s="31"/>
       <c r="B290" s="24"/>
       <c r="C290" s="24"/>
       <c r="D290" s="24"/>
@@ -5208,7 +6160,7 @@
       <c r="K290" s="24"/>
     </row>
     <row r="291" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="45"/>
+      <c r="A291" s="31"/>
       <c r="B291" s="24"/>
       <c r="C291" s="24"/>
       <c r="D291" s="24"/>
@@ -5221,7 +6173,7 @@
       <c r="K291" s="24"/>
     </row>
     <row r="292" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="45"/>
+      <c r="A292" s="31"/>
       <c r="B292" s="24"/>
       <c r="C292" s="24"/>
       <c r="D292" s="24"/>
@@ -5234,7 +6186,7 @@
       <c r="K292" s="24"/>
     </row>
     <row r="293" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="45"/>
+      <c r="A293" s="31"/>
       <c r="B293" s="24"/>
       <c r="C293" s="24"/>
       <c r="D293" s="24"/>
@@ -5247,7 +6199,7 @@
       <c r="K293" s="24"/>
     </row>
     <row r="294" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="45"/>
+      <c r="A294" s="31"/>
       <c r="B294" s="24"/>
       <c r="C294" s="24"/>
       <c r="D294" s="24"/>
@@ -5260,7 +6212,7 @@
       <c r="K294" s="24"/>
     </row>
     <row r="295" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="45"/>
+      <c r="A295" s="31"/>
       <c r="B295" s="24"/>
       <c r="C295" s="24"/>
       <c r="D295" s="24"/>
@@ -5273,7 +6225,7 @@
       <c r="K295" s="24"/>
     </row>
     <row r="296" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="45"/>
+      <c r="A296" s="31"/>
       <c r="B296" s="24"/>
       <c r="C296" s="24"/>
       <c r="D296" s="24"/>
@@ -5286,7 +6238,7 @@
       <c r="K296" s="24"/>
     </row>
     <row r="297" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="45"/>
+      <c r="A297" s="31"/>
       <c r="B297" s="24"/>
       <c r="C297" s="24"/>
       <c r="D297" s="24"/>
@@ -5299,7 +6251,7 @@
       <c r="K297" s="24"/>
     </row>
     <row r="298" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="45"/>
+      <c r="A298" s="31"/>
       <c r="B298" s="24"/>
       <c r="C298" s="24"/>
       <c r="D298" s="24"/>
@@ -5312,7 +6264,7 @@
       <c r="K298" s="24"/>
     </row>
     <row r="299" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="45"/>
+      <c r="A299" s="31"/>
       <c r="B299" s="24"/>
       <c r="C299" s="24"/>
       <c r="D299" s="24"/>
@@ -5325,7 +6277,7 @@
       <c r="K299" s="24"/>
     </row>
     <row r="300" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="45"/>
+      <c r="A300" s="31"/>
       <c r="B300" s="24"/>
       <c r="C300" s="24"/>
       <c r="D300" s="24"/>
@@ -5338,7 +6290,7 @@
       <c r="K300" s="24"/>
     </row>
     <row r="301" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="45"/>
+      <c r="A301" s="31"/>
       <c r="B301" s="24"/>
       <c r="C301" s="24"/>
       <c r="D301" s="24"/>
@@ -5351,7 +6303,7 @@
       <c r="K301" s="24"/>
     </row>
     <row r="302" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="45"/>
+      <c r="A302" s="31"/>
       <c r="B302" s="24"/>
       <c r="C302" s="24"/>
       <c r="D302" s="24"/>
@@ -5364,7 +6316,7 @@
       <c r="K302" s="24"/>
     </row>
     <row r="303" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="45"/>
+      <c r="A303" s="31"/>
       <c r="B303" s="24"/>
       <c r="C303" s="24"/>
       <c r="D303" s="24"/>
@@ -5377,7 +6329,7 @@
       <c r="K303" s="24"/>
     </row>
     <row r="304" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="45"/>
+      <c r="A304" s="31"/>
       <c r="B304" s="24"/>
       <c r="C304" s="24"/>
       <c r="D304" s="24"/>
@@ -5390,7 +6342,7 @@
       <c r="K304" s="24"/>
     </row>
     <row r="305" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="45"/>
+      <c r="A305" s="31"/>
       <c r="B305" s="24"/>
       <c r="C305" s="24"/>
       <c r="D305" s="24"/>
@@ -5403,7 +6355,7 @@
       <c r="K305" s="24"/>
     </row>
     <row r="306" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="45"/>
+      <c r="A306" s="31"/>
       <c r="B306" s="24"/>
       <c r="C306" s="24"/>
       <c r="D306" s="24"/>
@@ -5416,7 +6368,7 @@
       <c r="K306" s="24"/>
     </row>
     <row r="307" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="45"/>
+      <c r="A307" s="31"/>
       <c r="B307" s="24"/>
       <c r="C307" s="24"/>
       <c r="D307" s="24"/>
@@ -5429,7 +6381,7 @@
       <c r="K307" s="24"/>
     </row>
     <row r="308" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="45"/>
+      <c r="A308" s="31"/>
       <c r="B308" s="24"/>
       <c r="C308" s="24"/>
       <c r="D308" s="24"/>
@@ -5442,7 +6394,7 @@
       <c r="K308" s="24"/>
     </row>
     <row r="309" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="45"/>
+      <c r="A309" s="31"/>
       <c r="B309" s="24"/>
       <c r="C309" s="24"/>
       <c r="D309" s="24"/>
@@ -5455,7 +6407,7 @@
       <c r="K309" s="24"/>
     </row>
     <row r="310" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="45"/>
+      <c r="A310" s="31"/>
       <c r="B310" s="24"/>
       <c r="C310" s="24"/>
       <c r="D310" s="24"/>
@@ -5468,7 +6420,7 @@
       <c r="K310" s="24"/>
     </row>
     <row r="311" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="45"/>
+      <c r="A311" s="31"/>
       <c r="B311" s="24"/>
       <c r="C311" s="24"/>
       <c r="D311" s="24"/>
@@ -5481,7 +6433,7 @@
       <c r="K311" s="24"/>
     </row>
     <row r="312" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="45"/>
+      <c r="A312" s="31"/>
       <c r="B312" s="24"/>
       <c r="C312" s="24"/>
       <c r="D312" s="24"/>
@@ -5494,7 +6446,7 @@
       <c r="K312" s="24"/>
     </row>
     <row r="313" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="45"/>
+      <c r="A313" s="31"/>
       <c r="B313" s="24"/>
       <c r="C313" s="24"/>
       <c r="D313" s="24"/>
@@ -5507,7 +6459,7 @@
       <c r="K313" s="24"/>
     </row>
     <row r="314" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="45"/>
+      <c r="A314" s="31"/>
       <c r="B314" s="24"/>
       <c r="C314" s="24"/>
       <c r="D314" s="24"/>
@@ -5520,7 +6472,7 @@
       <c r="K314" s="24"/>
     </row>
     <row r="315" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="45"/>
+      <c r="A315" s="31"/>
       <c r="B315" s="24"/>
       <c r="C315" s="24"/>
       <c r="D315" s="24"/>
@@ -5533,7 +6485,7 @@
       <c r="K315" s="24"/>
     </row>
     <row r="316" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="45"/>
+      <c r="A316" s="31"/>
       <c r="B316" s="24"/>
       <c r="C316" s="24"/>
       <c r="D316" s="24"/>
@@ -5546,7 +6498,7 @@
       <c r="K316" s="24"/>
     </row>
     <row r="317" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="45"/>
+      <c r="A317" s="31"/>
       <c r="B317" s="24"/>
       <c r="C317" s="24"/>
       <c r="D317" s="24"/>
@@ -5559,7 +6511,7 @@
       <c r="K317" s="24"/>
     </row>
     <row r="318" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="45"/>
+      <c r="A318" s="31"/>
       <c r="B318" s="24"/>
       <c r="C318" s="24"/>
       <c r="D318" s="24"/>
@@ -5572,7 +6524,7 @@
       <c r="K318" s="24"/>
     </row>
     <row r="319" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="45"/>
+      <c r="A319" s="31"/>
       <c r="B319" s="24"/>
       <c r="C319" s="24"/>
       <c r="D319" s="24"/>
@@ -5585,7 +6537,7 @@
       <c r="K319" s="24"/>
     </row>
     <row r="320" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="45"/>
+      <c r="A320" s="31"/>
       <c r="B320" s="24"/>
       <c r="C320" s="24"/>
       <c r="D320" s="24"/>
@@ -5598,7 +6550,7 @@
       <c r="K320" s="24"/>
     </row>
     <row r="321" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="45"/>
+      <c r="A321" s="31"/>
       <c r="B321" s="24"/>
       <c r="C321" s="24"/>
       <c r="D321" s="24"/>
@@ -5611,7 +6563,7 @@
       <c r="K321" s="24"/>
     </row>
     <row r="322" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="45"/>
+      <c r="A322" s="31"/>
       <c r="B322" s="24"/>
       <c r="C322" s="24"/>
       <c r="D322" s="24"/>
@@ -5624,7 +6576,7 @@
       <c r="K322" s="24"/>
     </row>
     <row r="323" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="45"/>
+      <c r="A323" s="31"/>
       <c r="B323" s="24"/>
       <c r="C323" s="24"/>
       <c r="D323" s="24"/>
@@ -5637,7 +6589,7 @@
       <c r="K323" s="24"/>
     </row>
     <row r="324" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="45"/>
+      <c r="A324" s="31"/>
       <c r="B324" s="24"/>
       <c r="C324" s="24"/>
       <c r="D324" s="24"/>
@@ -5650,7 +6602,7 @@
       <c r="K324" s="24"/>
     </row>
     <row r="325" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="45"/>
+      <c r="A325" s="31"/>
       <c r="B325" s="24"/>
       <c r="C325" s="24"/>
       <c r="D325" s="24"/>
@@ -5663,7 +6615,7 @@
       <c r="K325" s="24"/>
     </row>
     <row r="326" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="45"/>
+      <c r="A326" s="31"/>
       <c r="B326" s="24"/>
       <c r="C326" s="24"/>
       <c r="D326" s="24"/>
@@ -5676,7 +6628,7 @@
       <c r="K326" s="24"/>
     </row>
     <row r="327" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="45"/>
+      <c r="A327" s="31"/>
       <c r="B327" s="24"/>
       <c r="C327" s="24"/>
       <c r="D327" s="24"/>
@@ -5689,7 +6641,7 @@
       <c r="K327" s="24"/>
     </row>
     <row r="328" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="45"/>
+      <c r="A328" s="31"/>
       <c r="B328" s="24"/>
       <c r="C328" s="24"/>
       <c r="D328" s="24"/>
@@ -5702,7 +6654,7 @@
       <c r="K328" s="24"/>
     </row>
     <row r="329" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="45"/>
+      <c r="A329" s="31"/>
       <c r="B329" s="24"/>
       <c r="C329" s="24"/>
       <c r="D329" s="24"/>
@@ -5715,7 +6667,7 @@
       <c r="K329" s="24"/>
     </row>
     <row r="330" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="45"/>
+      <c r="A330" s="31"/>
       <c r="B330" s="24"/>
       <c r="C330" s="24"/>
       <c r="D330" s="24"/>
@@ -5728,7 +6680,7 @@
       <c r="K330" s="24"/>
     </row>
     <row r="331" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="45"/>
+      <c r="A331" s="31"/>
       <c r="B331" s="24"/>
       <c r="C331" s="24"/>
       <c r="D331" s="24"/>
@@ -5741,7 +6693,7 @@
       <c r="K331" s="24"/>
     </row>
     <row r="332" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="45"/>
+      <c r="A332" s="31"/>
       <c r="B332" s="24"/>
       <c r="C332" s="24"/>
       <c r="D332" s="24"/>
@@ -5754,7 +6706,7 @@
       <c r="K332" s="24"/>
     </row>
     <row r="333" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="45"/>
+      <c r="A333" s="31"/>
       <c r="B333" s="24"/>
       <c r="C333" s="24"/>
       <c r="D333" s="24"/>
@@ -5767,7 +6719,7 @@
       <c r="K333" s="24"/>
     </row>
     <row r="334" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="45"/>
+      <c r="A334" s="31"/>
       <c r="B334" s="24"/>
       <c r="C334" s="24"/>
       <c r="D334" s="24"/>
@@ -5780,7 +6732,7 @@
       <c r="K334" s="24"/>
     </row>
     <row r="335" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="45"/>
+      <c r="A335" s="31"/>
       <c r="B335" s="24"/>
       <c r="C335" s="24"/>
       <c r="D335" s="24"/>
@@ -5793,7 +6745,7 @@
       <c r="K335" s="24"/>
     </row>
     <row r="336" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="45"/>
+      <c r="A336" s="31"/>
       <c r="B336" s="24"/>
       <c r="C336" s="24"/>
       <c r="D336" s="24"/>
@@ -5806,7 +6758,7 @@
       <c r="K336" s="24"/>
     </row>
     <row r="337" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="45"/>
+      <c r="A337" s="31"/>
       <c r="B337" s="24"/>
       <c r="C337" s="24"/>
       <c r="D337" s="24"/>
@@ -5819,7 +6771,7 @@
       <c r="K337" s="24"/>
     </row>
     <row r="338" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="45"/>
+      <c r="A338" s="31"/>
       <c r="B338" s="24"/>
       <c r="C338" s="24"/>
       <c r="D338" s="24"/>
@@ -5832,7 +6784,7 @@
       <c r="K338" s="24"/>
     </row>
     <row r="339" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="45"/>
+      <c r="A339" s="31"/>
       <c r="B339" s="24"/>
       <c r="C339" s="24"/>
       <c r="D339" s="24"/>
@@ -5845,7 +6797,7 @@
       <c r="K339" s="24"/>
     </row>
     <row r="340" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="45"/>
+      <c r="A340" s="31"/>
       <c r="B340" s="24"/>
       <c r="C340" s="24"/>
       <c r="D340" s="24"/>
@@ -5858,7 +6810,7 @@
       <c r="K340" s="24"/>
     </row>
     <row r="341" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="45"/>
+      <c r="A341" s="31"/>
       <c r="B341" s="24"/>
       <c r="C341" s="24"/>
       <c r="D341" s="24"/>
@@ -5871,7 +6823,7 @@
       <c r="K341" s="24"/>
     </row>
     <row r="342" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="45"/>
+      <c r="A342" s="31"/>
       <c r="B342" s="24"/>
       <c r="C342" s="24"/>
       <c r="D342" s="24"/>
@@ -5884,7 +6836,7 @@
       <c r="K342" s="24"/>
     </row>
     <row r="343" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="45"/>
+      <c r="A343" s="31"/>
       <c r="B343" s="24"/>
       <c r="C343" s="24"/>
       <c r="D343" s="24"/>
@@ -5897,7 +6849,7 @@
       <c r="K343" s="24"/>
     </row>
     <row r="344" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="45"/>
+      <c r="A344" s="31"/>
       <c r="B344" s="24"/>
       <c r="C344" s="24"/>
       <c r="D344" s="24"/>
@@ -5910,7 +6862,7 @@
       <c r="K344" s="24"/>
     </row>
     <row r="345" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="45"/>
+      <c r="A345" s="31"/>
       <c r="B345" s="24"/>
       <c r="C345" s="24"/>
       <c r="D345" s="24"/>
@@ -5923,7 +6875,7 @@
       <c r="K345" s="24"/>
     </row>
     <row r="346" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="45"/>
+      <c r="A346" s="31"/>
       <c r="B346" s="24"/>
       <c r="C346" s="24"/>
       <c r="D346" s="24"/>
@@ -5936,7 +6888,7 @@
       <c r="K346" s="24"/>
     </row>
     <row r="347" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="45"/>
+      <c r="A347" s="31"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
       <c r="D347" s="24"/>
@@ -5949,7 +6901,7 @@
       <c r="K347" s="24"/>
     </row>
     <row r="348" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="45"/>
+      <c r="A348" s="31"/>
       <c r="B348" s="24"/>
       <c r="C348" s="24"/>
       <c r="D348" s="24"/>
@@ -5962,7 +6914,7 @@
       <c r="K348" s="24"/>
     </row>
     <row r="349" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="45"/>
+      <c r="A349" s="31"/>
       <c r="B349" s="24"/>
       <c r="C349" s="24"/>
       <c r="D349" s="24"/>
@@ -5975,7 +6927,7 @@
       <c r="K349" s="24"/>
     </row>
     <row r="350" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="45"/>
+      <c r="A350" s="31"/>
       <c r="B350" s="24"/>
       <c r="C350" s="24"/>
       <c r="D350" s="24"/>
@@ -5988,7 +6940,7 @@
       <c r="K350" s="24"/>
     </row>
     <row r="351" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="45"/>
+      <c r="A351" s="31"/>
       <c r="B351" s="24"/>
       <c r="C351" s="24"/>
       <c r="D351" s="24"/>
@@ -6001,7 +6953,7 @@
       <c r="K351" s="24"/>
     </row>
     <row r="352" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="45"/>
+      <c r="A352" s="31"/>
       <c r="B352" s="24"/>
       <c r="C352" s="24"/>
       <c r="D352" s="24"/>
@@ -6014,7 +6966,7 @@
       <c r="K352" s="24"/>
     </row>
     <row r="353" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="45"/>
+      <c r="A353" s="31"/>
       <c r="B353" s="24"/>
       <c r="C353" s="24"/>
       <c r="D353" s="24"/>
@@ -6027,7 +6979,7 @@
       <c r="K353" s="24"/>
     </row>
     <row r="354" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="45"/>
+      <c r="A354" s="31"/>
       <c r="B354" s="24"/>
       <c r="C354" s="24"/>
       <c r="D354" s="24"/>
@@ -6040,7 +6992,7 @@
       <c r="K354" s="24"/>
     </row>
     <row r="355" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="45"/>
+      <c r="A355" s="31"/>
       <c r="B355" s="24"/>
       <c r="C355" s="24"/>
       <c r="D355" s="24"/>
@@ -6053,7 +7005,7 @@
       <c r="K355" s="24"/>
     </row>
     <row r="356" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="45"/>
+      <c r="A356" s="31"/>
       <c r="B356" s="24"/>
       <c r="C356" s="24"/>
       <c r="D356" s="24"/>
@@ -6066,7 +7018,7 @@
       <c r="K356" s="24"/>
     </row>
     <row r="357" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="45"/>
+      <c r="A357" s="31"/>
       <c r="B357" s="24"/>
       <c r="C357" s="24"/>
       <c r="D357" s="24"/>
@@ -6079,7 +7031,7 @@
       <c r="K357" s="24"/>
     </row>
     <row r="358" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="45"/>
+      <c r="A358" s="31"/>
       <c r="B358" s="24"/>
       <c r="C358" s="24"/>
       <c r="D358" s="24"/>
@@ -6092,7 +7044,7 @@
       <c r="K358" s="24"/>
     </row>
     <row r="359" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="45"/>
+      <c r="A359" s="31"/>
       <c r="B359" s="24"/>
       <c r="C359" s="24"/>
       <c r="D359" s="24"/>
@@ -6105,7 +7057,7 @@
       <c r="K359" s="24"/>
     </row>
     <row r="360" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="45"/>
+      <c r="A360" s="31"/>
       <c r="B360" s="24"/>
       <c r="C360" s="24"/>
       <c r="D360" s="24"/>
@@ -6118,7 +7070,7 @@
       <c r="K360" s="24"/>
     </row>
     <row r="361" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="45"/>
+      <c r="A361" s="31"/>
       <c r="B361" s="24"/>
       <c r="C361" s="24"/>
       <c r="D361" s="24"/>
@@ -6131,7 +7083,7 @@
       <c r="K361" s="24"/>
     </row>
     <row r="362" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="45"/>
+      <c r="A362" s="31"/>
       <c r="B362" s="24"/>
       <c r="C362" s="24"/>
       <c r="D362" s="24"/>
@@ -6144,7 +7096,7 @@
       <c r="K362" s="24"/>
     </row>
     <row r="363" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="45"/>
+      <c r="A363" s="31"/>
       <c r="B363" s="24"/>
       <c r="C363" s="24"/>
       <c r="D363" s="24"/>
@@ -6157,7 +7109,7 @@
       <c r="K363" s="24"/>
     </row>
     <row r="364" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="45"/>
+      <c r="A364" s="31"/>
       <c r="B364" s="24"/>
       <c r="C364" s="24"/>
       <c r="D364" s="24"/>
@@ -6170,7 +7122,7 @@
       <c r="K364" s="24"/>
     </row>
     <row r="365" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="45"/>
+      <c r="A365" s="31"/>
       <c r="B365" s="24"/>
       <c r="C365" s="24"/>
       <c r="D365" s="24"/>
@@ -6183,7 +7135,7 @@
       <c r="K365" s="24"/>
     </row>
     <row r="366" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="45"/>
+      <c r="A366" s="31"/>
       <c r="B366" s="24"/>
       <c r="C366" s="24"/>
       <c r="D366" s="24"/>
@@ -6196,7 +7148,7 @@
       <c r="K366" s="24"/>
     </row>
     <row r="367" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="45"/>
+      <c r="A367" s="31"/>
       <c r="B367" s="24"/>
       <c r="C367" s="24"/>
       <c r="D367" s="24"/>
@@ -6209,7 +7161,7 @@
       <c r="K367" s="24"/>
     </row>
     <row r="368" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="45"/>
+      <c r="A368" s="31"/>
       <c r="B368" s="24"/>
       <c r="C368" s="24"/>
       <c r="D368" s="24"/>
@@ -6222,7 +7174,7 @@
       <c r="K368" s="24"/>
     </row>
     <row r="369" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="45"/>
+      <c r="A369" s="31"/>
       <c r="B369" s="24"/>
       <c r="C369" s="24"/>
       <c r="D369" s="24"/>
@@ -6235,7 +7187,7 @@
       <c r="K369" s="24"/>
     </row>
     <row r="370" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="45"/>
+      <c r="A370" s="31"/>
       <c r="B370" s="24"/>
       <c r="C370" s="24"/>
       <c r="D370" s="24"/>
@@ -6248,7 +7200,7 @@
       <c r="K370" s="24"/>
     </row>
     <row r="371" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="45"/>
+      <c r="A371" s="31"/>
       <c r="B371" s="24"/>
       <c r="C371" s="24"/>
       <c r="D371" s="24"/>
@@ -6261,7 +7213,7 @@
       <c r="K371" s="24"/>
     </row>
     <row r="372" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="45"/>
+      <c r="A372" s="31"/>
       <c r="B372" s="24"/>
       <c r="C372" s="24"/>
       <c r="D372" s="24"/>
@@ -6274,7 +7226,7 @@
       <c r="K372" s="24"/>
     </row>
     <row r="373" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="45"/>
+      <c r="A373" s="31"/>
       <c r="B373" s="24"/>
       <c r="C373" s="24"/>
       <c r="D373" s="24"/>
@@ -6287,7 +7239,7 @@
       <c r="K373" s="24"/>
     </row>
     <row r="374" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="45"/>
+      <c r="A374" s="31"/>
       <c r="B374" s="24"/>
       <c r="C374" s="24"/>
       <c r="D374" s="24"/>
@@ -6300,7 +7252,7 @@
       <c r="K374" s="24"/>
     </row>
     <row r="375" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="45"/>
+      <c r="A375" s="31"/>
       <c r="B375" s="24"/>
       <c r="C375" s="24"/>
       <c r="D375" s="24"/>
@@ -6313,7 +7265,7 @@
       <c r="K375" s="24"/>
     </row>
     <row r="376" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="45"/>
+      <c r="A376" s="31"/>
       <c r="B376" s="24"/>
       <c r="C376" s="24"/>
       <c r="D376" s="24"/>
@@ -6326,7 +7278,7 @@
       <c r="K376" s="24"/>
     </row>
     <row r="377" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="45"/>
+      <c r="A377" s="31"/>
       <c r="B377" s="24"/>
       <c r="C377" s="24"/>
       <c r="D377" s="24"/>
@@ -6339,7 +7291,7 @@
       <c r="K377" s="24"/>
     </row>
     <row r="378" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="45"/>
+      <c r="A378" s="31"/>
       <c r="B378" s="24"/>
       <c r="C378" s="24"/>
       <c r="D378" s="24"/>
@@ -6352,7 +7304,7 @@
       <c r="K378" s="24"/>
     </row>
     <row r="379" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="45"/>
+      <c r="A379" s="31"/>
       <c r="B379" s="24"/>
       <c r="C379" s="24"/>
       <c r="D379" s="24"/>
@@ -6365,7 +7317,7 @@
       <c r="K379" s="24"/>
     </row>
     <row r="380" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="45"/>
+      <c r="A380" s="31"/>
       <c r="B380" s="24"/>
       <c r="C380" s="24"/>
       <c r="D380" s="24"/>
@@ -6378,7 +7330,7 @@
       <c r="K380" s="24"/>
     </row>
     <row r="381" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="45"/>
+      <c r="A381" s="31"/>
       <c r="B381" s="24"/>
       <c r="C381" s="24"/>
       <c r="D381" s="24"/>
@@ -6391,7 +7343,7 @@
       <c r="K381" s="24"/>
     </row>
     <row r="382" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="45"/>
+      <c r="A382" s="31"/>
       <c r="B382" s="24"/>
       <c r="C382" s="24"/>
       <c r="D382" s="24"/>
@@ -6404,7 +7356,7 @@
       <c r="K382" s="24"/>
     </row>
     <row r="383" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="45"/>
+      <c r="A383" s="31"/>
       <c r="B383" s="24"/>
       <c r="C383" s="24"/>
       <c r="D383" s="24"/>
@@ -6417,7 +7369,7 @@
       <c r="K383" s="24"/>
     </row>
     <row r="384" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="45"/>
+      <c r="A384" s="31"/>
       <c r="B384" s="24"/>
       <c r="C384" s="24"/>
       <c r="D384" s="24"/>
@@ -6430,7 +7382,7 @@
       <c r="K384" s="24"/>
     </row>
     <row r="385" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="45"/>
+      <c r="A385" s="31"/>
       <c r="B385" s="24"/>
       <c r="C385" s="24"/>
       <c r="D385" s="24"/>
@@ -6443,7 +7395,7 @@
       <c r="K385" s="24"/>
     </row>
     <row r="386" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="45"/>
+      <c r="A386" s="31"/>
       <c r="B386" s="24"/>
       <c r="C386" s="24"/>
       <c r="D386" s="24"/>
@@ -6456,7 +7408,7 @@
       <c r="K386" s="24"/>
     </row>
     <row r="387" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="45"/>
+      <c r="A387" s="31"/>
       <c r="B387" s="24"/>
       <c r="C387" s="24"/>
       <c r="D387" s="24"/>
@@ -6469,7 +7421,7 @@
       <c r="K387" s="24"/>
     </row>
     <row r="388" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="45"/>
+      <c r="A388" s="31"/>
       <c r="B388" s="24"/>
       <c r="C388" s="24"/>
       <c r="D388" s="24"/>
@@ -6482,7 +7434,7 @@
       <c r="K388" s="24"/>
     </row>
     <row r="389" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="45"/>
+      <c r="A389" s="31"/>
       <c r="B389" s="24"/>
       <c r="C389" s="24"/>
       <c r="D389" s="24"/>
@@ -6495,7 +7447,7 @@
       <c r="K389" s="24"/>
     </row>
     <row r="390" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="45"/>
+      <c r="A390" s="31"/>
       <c r="B390" s="24"/>
       <c r="C390" s="24"/>
       <c r="D390" s="24"/>
@@ -6508,7 +7460,7 @@
       <c r="K390" s="24"/>
     </row>
     <row r="391" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="45"/>
+      <c r="A391" s="31"/>
       <c r="B391" s="24"/>
       <c r="C391" s="24"/>
       <c r="D391" s="24"/>
@@ -6521,7 +7473,7 @@
       <c r="K391" s="24"/>
     </row>
     <row r="392" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="45"/>
+      <c r="A392" s="31"/>
       <c r="B392" s="24"/>
       <c r="C392" s="24"/>
       <c r="D392" s="24"/>
@@ -6534,7 +7486,7 @@
       <c r="K392" s="24"/>
     </row>
     <row r="393" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="45"/>
+      <c r="A393" s="31"/>
       <c r="B393" s="24"/>
       <c r="C393" s="24"/>
       <c r="D393" s="24"/>
@@ -6547,7 +7499,7 @@
       <c r="K393" s="24"/>
     </row>
     <row r="394" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="45"/>
+      <c r="A394" s="31"/>
       <c r="B394" s="24"/>
       <c r="C394" s="24"/>
       <c r="D394" s="24"/>
@@ -6560,7 +7512,7 @@
       <c r="K394" s="24"/>
     </row>
     <row r="395" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="45"/>
+      <c r="A395" s="31"/>
       <c r="B395" s="24"/>
       <c r="C395" s="24"/>
       <c r="D395" s="24"/>
@@ -6573,7 +7525,7 @@
       <c r="K395" s="24"/>
     </row>
     <row r="396" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="45"/>
+      <c r="A396" s="31"/>
       <c r="B396" s="24"/>
       <c r="C396" s="24"/>
       <c r="D396" s="24"/>
@@ -6586,7 +7538,7 @@
       <c r="K396" s="24"/>
     </row>
     <row r="397" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="45"/>
+      <c r="A397" s="31"/>
       <c r="B397" s="24"/>
       <c r="C397" s="24"/>
       <c r="D397" s="24"/>
@@ -6599,7 +7551,7 @@
       <c r="K397" s="24"/>
     </row>
     <row r="398" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="45"/>
+      <c r="A398" s="31"/>
       <c r="B398" s="24"/>
       <c r="C398" s="24"/>
       <c r="D398" s="24"/>
@@ -6612,7 +7564,7 @@
       <c r="K398" s="24"/>
     </row>
     <row r="399" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="45"/>
+      <c r="A399" s="31"/>
       <c r="B399" s="24"/>
       <c r="C399" s="24"/>
       <c r="D399" s="24"/>
@@ -6625,7 +7577,7 @@
       <c r="K399" s="24"/>
     </row>
     <row r="400" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="45"/>
+      <c r="A400" s="31"/>
       <c r="B400" s="24"/>
       <c r="C400" s="24"/>
       <c r="D400" s="24"/>
@@ -6638,7 +7590,7 @@
       <c r="K400" s="24"/>
     </row>
     <row r="401" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="45"/>
+      <c r="A401" s="31"/>
       <c r="B401" s="24"/>
       <c r="C401" s="24"/>
       <c r="D401" s="24"/>
@@ -6651,7 +7603,7 @@
       <c r="K401" s="24"/>
     </row>
     <row r="402" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="45"/>
+      <c r="A402" s="31"/>
       <c r="B402" s="24"/>
       <c r="C402" s="24"/>
       <c r="D402" s="24"/>
@@ -6664,7 +7616,7 @@
       <c r="K402" s="24"/>
     </row>
     <row r="403" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="45"/>
+      <c r="A403" s="31"/>
       <c r="B403" s="24"/>
       <c r="C403" s="24"/>
       <c r="D403" s="24"/>
@@ -6677,7 +7629,7 @@
       <c r="K403" s="24"/>
     </row>
     <row r="404" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="45"/>
+      <c r="A404" s="31"/>
       <c r="B404" s="24"/>
       <c r="C404" s="24"/>
       <c r="D404" s="24"/>
@@ -6690,7 +7642,7 @@
       <c r="K404" s="24"/>
     </row>
     <row r="405" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="45"/>
+      <c r="A405" s="31"/>
       <c r="B405" s="24"/>
       <c r="C405" s="24"/>
       <c r="D405" s="24"/>
@@ -6703,7 +7655,7 @@
       <c r="K405" s="24"/>
     </row>
     <row r="406" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="45"/>
+      <c r="A406" s="31"/>
       <c r="B406" s="24"/>
       <c r="C406" s="24"/>
       <c r="D406" s="24"/>
@@ -6716,7 +7668,7 @@
       <c r="K406" s="24"/>
     </row>
     <row r="407" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="45"/>
+      <c r="A407" s="31"/>
       <c r="B407" s="24"/>
       <c r="C407" s="24"/>
       <c r="D407" s="24"/>
@@ -6729,7 +7681,7 @@
       <c r="K407" s="24"/>
     </row>
     <row r="408" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="45"/>
+      <c r="A408" s="31"/>
       <c r="B408" s="24"/>
       <c r="C408" s="24"/>
       <c r="D408" s="24"/>
@@ -6742,7 +7694,7 @@
       <c r="K408" s="24"/>
     </row>
     <row r="409" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="45"/>
+      <c r="A409" s="31"/>
       <c r="B409" s="24"/>
       <c r="C409" s="24"/>
       <c r="D409" s="24"/>
@@ -6755,7 +7707,7 @@
       <c r="K409" s="24"/>
     </row>
     <row r="410" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="45"/>
+      <c r="A410" s="31"/>
       <c r="B410" s="24"/>
       <c r="C410" s="24"/>
       <c r="D410" s="24"/>
@@ -6768,7 +7720,7 @@
       <c r="K410" s="24"/>
     </row>
     <row r="411" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="45"/>
+      <c r="A411" s="31"/>
       <c r="B411" s="24"/>
       <c r="C411" s="24"/>
       <c r="D411" s="24"/>
@@ -6781,7 +7733,7 @@
       <c r="K411" s="24"/>
     </row>
     <row r="412" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="45"/>
+      <c r="A412" s="31"/>
       <c r="B412" s="24"/>
       <c r="C412" s="24"/>
       <c r="D412" s="24"/>
@@ -6794,7 +7746,7 @@
       <c r="K412" s="24"/>
     </row>
     <row r="413" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="45"/>
+      <c r="A413" s="31"/>
       <c r="B413" s="24"/>
       <c r="C413" s="24"/>
       <c r="D413" s="24"/>
@@ -6807,7 +7759,7 @@
       <c r="K413" s="24"/>
     </row>
     <row r="414" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="45"/>
+      <c r="A414" s="31"/>
       <c r="B414" s="24"/>
       <c r="C414" s="24"/>
       <c r="D414" s="24"/>
@@ -6820,7 +7772,7 @@
       <c r="K414" s="24"/>
     </row>
     <row r="415" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="45"/>
+      <c r="A415" s="31"/>
       <c r="B415" s="24"/>
       <c r="C415" s="24"/>
       <c r="D415" s="24"/>
@@ -6833,7 +7785,7 @@
       <c r="K415" s="24"/>
     </row>
     <row r="416" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="45"/>
+      <c r="A416" s="31"/>
       <c r="B416" s="24"/>
       <c r="C416" s="24"/>
       <c r="D416" s="24"/>
@@ -6846,7 +7798,7 @@
       <c r="K416" s="24"/>
     </row>
     <row r="417" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="45"/>
+      <c r="A417" s="31"/>
       <c r="B417" s="24"/>
       <c r="C417" s="24"/>
       <c r="D417" s="24"/>
@@ -6859,7 +7811,7 @@
       <c r="K417" s="24"/>
     </row>
     <row r="418" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="45"/>
+      <c r="A418" s="31"/>
       <c r="B418" s="24"/>
       <c r="C418" s="24"/>
       <c r="D418" s="24"/>
@@ -6872,7 +7824,7 @@
       <c r="K418" s="24"/>
     </row>
     <row r="419" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="45"/>
+      <c r="A419" s="31"/>
       <c r="B419" s="24"/>
       <c r="C419" s="24"/>
       <c r="D419" s="24"/>
@@ -6885,7 +7837,7 @@
       <c r="K419" s="24"/>
     </row>
     <row r="420" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="45"/>
+      <c r="A420" s="31"/>
       <c r="B420" s="24"/>
       <c r="C420" s="24"/>
       <c r="D420" s="24"/>
@@ -6898,7 +7850,7 @@
       <c r="K420" s="24"/>
     </row>
     <row r="421" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="45"/>
+      <c r="A421" s="31"/>
       <c r="B421" s="24"/>
       <c r="C421" s="24"/>
       <c r="D421" s="24"/>
@@ -6911,7 +7863,7 @@
       <c r="K421" s="24"/>
     </row>
     <row r="422" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="45"/>
+      <c r="A422" s="31"/>
       <c r="B422" s="24"/>
       <c r="C422" s="24"/>
       <c r="D422" s="24"/>
@@ -6924,7 +7876,7 @@
       <c r="K422" s="24"/>
     </row>
     <row r="423" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="45"/>
+      <c r="A423" s="31"/>
       <c r="B423" s="24"/>
       <c r="C423" s="24"/>
       <c r="D423" s="24"/>
@@ -6937,7 +7889,7 @@
       <c r="K423" s="24"/>
     </row>
     <row r="424" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="45"/>
+      <c r="A424" s="31"/>
       <c r="B424" s="24"/>
       <c r="C424" s="24"/>
       <c r="D424" s="24"/>
@@ -6950,7 +7902,7 @@
       <c r="K424" s="24"/>
     </row>
     <row r="425" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="45"/>
+      <c r="A425" s="31"/>
       <c r="B425" s="24"/>
       <c r="C425" s="24"/>
       <c r="D425" s="24"/>
@@ -6963,7 +7915,7 @@
       <c r="K425" s="24"/>
     </row>
     <row r="426" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="45"/>
+      <c r="A426" s="31"/>
       <c r="B426" s="24"/>
       <c r="C426" s="24"/>
       <c r="D426" s="24"/>
@@ -6976,7 +7928,7 @@
       <c r="K426" s="24"/>
     </row>
     <row r="427" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="45"/>
+      <c r="A427" s="31"/>
       <c r="B427" s="24"/>
       <c r="C427" s="24"/>
       <c r="D427" s="24"/>
@@ -6989,7 +7941,7 @@
       <c r="K427" s="24"/>
     </row>
     <row r="428" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="45"/>
+      <c r="A428" s="31"/>
       <c r="B428" s="24"/>
       <c r="C428" s="24"/>
       <c r="D428" s="24"/>
@@ -7002,7 +7954,7 @@
       <c r="K428" s="24"/>
     </row>
     <row r="429" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="45"/>
+      <c r="A429" s="31"/>
       <c r="B429" s="24"/>
       <c r="C429" s="24"/>
       <c r="D429" s="24"/>
@@ -7015,7 +7967,7 @@
       <c r="K429" s="24"/>
     </row>
     <row r="430" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="45"/>
+      <c r="A430" s="31"/>
       <c r="B430" s="24"/>
       <c r="C430" s="24"/>
       <c r="D430" s="24"/>
@@ -7028,7 +7980,7 @@
       <c r="K430" s="24"/>
     </row>
     <row r="431" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="45"/>
+      <c r="A431" s="31"/>
       <c r="B431" s="24"/>
       <c r="C431" s="24"/>
       <c r="D431" s="24"/>
@@ -7041,7 +7993,7 @@
       <c r="K431" s="24"/>
     </row>
     <row r="432" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="45"/>
+      <c r="A432" s="31"/>
       <c r="B432" s="24"/>
       <c r="C432" s="24"/>
       <c r="D432" s="24"/>
@@ -7054,7 +8006,7 @@
       <c r="K432" s="24"/>
     </row>
     <row r="433" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="45"/>
+      <c r="A433" s="31"/>
       <c r="B433" s="24"/>
       <c r="C433" s="24"/>
       <c r="D433" s="24"/>
@@ -7067,7 +8019,7 @@
       <c r="K433" s="24"/>
     </row>
     <row r="434" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="45"/>
+      <c r="A434" s="31"/>
       <c r="B434" s="24"/>
       <c r="C434" s="24"/>
       <c r="D434" s="24"/>
@@ -7080,7 +8032,7 @@
       <c r="K434" s="24"/>
     </row>
     <row r="435" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="45"/>
+      <c r="A435" s="31"/>
       <c r="B435" s="24"/>
       <c r="C435" s="24"/>
       <c r="D435" s="24"/>
@@ -7093,7 +8045,7 @@
       <c r="K435" s="24"/>
     </row>
     <row r="436" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="45"/>
+      <c r="A436" s="31"/>
       <c r="B436" s="24"/>
       <c r="C436" s="24"/>
       <c r="D436" s="24"/>
@@ -7106,7 +8058,7 @@
       <c r="K436" s="24"/>
     </row>
     <row r="437" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="45"/>
+      <c r="A437" s="31"/>
       <c r="B437" s="24"/>
       <c r="C437" s="24"/>
       <c r="D437" s="24"/>
@@ -7119,7 +8071,7 @@
       <c r="K437" s="24"/>
     </row>
     <row r="438" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="45"/>
+      <c r="A438" s="31"/>
       <c r="B438" s="24"/>
       <c r="C438" s="24"/>
       <c r="D438" s="24"/>
@@ -7132,7 +8084,7 @@
       <c r="K438" s="24"/>
     </row>
     <row r="439" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="45"/>
+      <c r="A439" s="31"/>
       <c r="B439" s="24"/>
       <c r="C439" s="24"/>
       <c r="D439" s="24"/>
@@ -7145,7 +8097,7 @@
       <c r="K439" s="24"/>
     </row>
     <row r="440" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="45"/>
+      <c r="A440" s="31"/>
       <c r="B440" s="24"/>
       <c r="C440" s="24"/>
       <c r="D440" s="24"/>
@@ -7158,7 +8110,7 @@
       <c r="K440" s="24"/>
     </row>
     <row r="441" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="45"/>
+      <c r="A441" s="31"/>
       <c r="B441" s="24"/>
       <c r="C441" s="24"/>
       <c r="D441" s="24"/>
@@ -7171,7 +8123,7 @@
       <c r="K441" s="24"/>
     </row>
     <row r="442" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="45"/>
+      <c r="A442" s="31"/>
       <c r="B442" s="24"/>
       <c r="C442" s="24"/>
       <c r="D442" s="24"/>
@@ -7184,7 +8136,7 @@
       <c r="K442" s="24"/>
     </row>
     <row r="443" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="45"/>
+      <c r="A443" s="31"/>
       <c r="B443" s="24"/>
       <c r="C443" s="24"/>
       <c r="D443" s="24"/>
@@ -7197,7 +8149,7 @@
       <c r="K443" s="24"/>
     </row>
     <row r="444" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="45"/>
+      <c r="A444" s="31"/>
       <c r="B444" s="24"/>
       <c r="C444" s="24"/>
       <c r="D444" s="24"/>
@@ -7210,7 +8162,7 @@
       <c r="K444" s="24"/>
     </row>
     <row r="445" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="45"/>
+      <c r="A445" s="31"/>
       <c r="B445" s="24"/>
       <c r="C445" s="24"/>
       <c r="D445" s="24"/>
@@ -7223,7 +8175,7 @@
       <c r="K445" s="24"/>
     </row>
     <row r="446" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="45"/>
+      <c r="A446" s="31"/>
       <c r="B446" s="24"/>
       <c r="C446" s="24"/>
       <c r="D446" s="24"/>
@@ -7236,7 +8188,7 @@
       <c r="K446" s="24"/>
     </row>
     <row r="447" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="45"/>
+      <c r="A447" s="31"/>
       <c r="B447" s="24"/>
       <c r="C447" s="24"/>
       <c r="D447" s="24"/>
@@ -7249,7 +8201,7 @@
       <c r="K447" s="24"/>
     </row>
     <row r="448" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="45"/>
+      <c r="A448" s="31"/>
       <c r="B448" s="24"/>
       <c r="C448" s="24"/>
       <c r="D448" s="24"/>
@@ -7262,7 +8214,7 @@
       <c r="K448" s="24"/>
     </row>
     <row r="449" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="45"/>
+      <c r="A449" s="31"/>
       <c r="B449" s="24"/>
       <c r="C449" s="24"/>
       <c r="D449" s="24"/>
@@ -7275,7 +8227,7 @@
       <c r="K449" s="24"/>
     </row>
     <row r="450" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="45"/>
+      <c r="A450" s="31"/>
       <c r="B450" s="24"/>
       <c r="C450" s="24"/>
       <c r="D450" s="24"/>
@@ -7288,7 +8240,7 @@
       <c r="K450" s="24"/>
     </row>
     <row r="451" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="45"/>
+      <c r="A451" s="31"/>
       <c r="B451" s="24"/>
       <c r="C451" s="24"/>
       <c r="D451" s="24"/>
@@ -7301,7 +8253,7 @@
       <c r="K451" s="24"/>
     </row>
     <row r="452" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="45"/>
+      <c r="A452" s="31"/>
       <c r="B452" s="24"/>
       <c r="C452" s="24"/>
       <c r="D452" s="24"/>
@@ -7314,7 +8266,7 @@
       <c r="K452" s="24"/>
     </row>
     <row r="453" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="45"/>
+      <c r="A453" s="31"/>
       <c r="B453" s="24"/>
       <c r="C453" s="24"/>
       <c r="D453" s="24"/>
@@ -7327,7 +8279,7 @@
       <c r="K453" s="24"/>
     </row>
     <row r="454" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="45"/>
+      <c r="A454" s="31"/>
       <c r="B454" s="24"/>
       <c r="C454" s="24"/>
       <c r="D454" s="24"/>
@@ -7340,7 +8292,7 @@
       <c r="K454" s="24"/>
     </row>
     <row r="455" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="45"/>
+      <c r="A455" s="31"/>
       <c r="B455" s="24"/>
       <c r="C455" s="24"/>
       <c r="D455" s="24"/>
@@ -7353,7 +8305,7 @@
       <c r="K455" s="24"/>
     </row>
     <row r="456" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="45"/>
+      <c r="A456" s="31"/>
       <c r="B456" s="24"/>
       <c r="C456" s="24"/>
       <c r="D456" s="24"/>
@@ -7366,7 +8318,7 @@
       <c r="K456" s="24"/>
     </row>
     <row r="457" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="45"/>
+      <c r="A457" s="31"/>
       <c r="B457" s="24"/>
       <c r="C457" s="24"/>
       <c r="D457" s="24"/>
@@ -7379,7 +8331,7 @@
       <c r="K457" s="24"/>
     </row>
     <row r="458" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="45"/>
+      <c r="A458" s="31"/>
       <c r="B458" s="24"/>
       <c r="C458" s="24"/>
       <c r="D458" s="24"/>
@@ -7392,7 +8344,7 @@
       <c r="K458" s="24"/>
     </row>
     <row r="459" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="45"/>
+      <c r="A459" s="31"/>
       <c r="B459" s="24"/>
       <c r="C459" s="24"/>
       <c r="D459" s="24"/>
@@ -7405,7 +8357,7 @@
       <c r="K459" s="24"/>
     </row>
     <row r="460" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="45"/>
+      <c r="A460" s="31"/>
       <c r="B460" s="24"/>
       <c r="C460" s="24"/>
       <c r="D460" s="24"/>
@@ -7418,7 +8370,7 @@
       <c r="K460" s="24"/>
     </row>
     <row r="461" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="45"/>
+      <c r="A461" s="31"/>
       <c r="B461" s="24"/>
       <c r="C461" s="24"/>
       <c r="D461" s="24"/>
@@ -7431,7 +8383,7 @@
       <c r="K461" s="24"/>
     </row>
     <row r="462" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="45"/>
+      <c r="A462" s="31"/>
       <c r="B462" s="24"/>
       <c r="C462" s="24"/>
       <c r="D462" s="24"/>
@@ -7444,7 +8396,7 @@
       <c r="K462" s="24"/>
     </row>
     <row r="463" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="45"/>
+      <c r="A463" s="31"/>
       <c r="B463" s="24"/>
       <c r="C463" s="24"/>
       <c r="D463" s="24"/>
@@ -7457,7 +8409,7 @@
       <c r="K463" s="24"/>
     </row>
     <row r="464" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="45"/>
+      <c r="A464" s="31"/>
       <c r="B464" s="24"/>
       <c r="C464" s="24"/>
       <c r="D464" s="24"/>
@@ -7470,7 +8422,7 @@
       <c r="K464" s="24"/>
     </row>
     <row r="465" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="45"/>
+      <c r="A465" s="31"/>
       <c r="B465" s="24"/>
       <c r="C465" s="24"/>
       <c r="D465" s="24"/>
@@ -7483,7 +8435,7 @@
       <c r="K465" s="24"/>
     </row>
     <row r="466" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="45"/>
+      <c r="A466" s="31"/>
       <c r="B466" s="24"/>
       <c r="C466" s="24"/>
       <c r="D466" s="24"/>
@@ -7496,7 +8448,7 @@
       <c r="K466" s="24"/>
     </row>
     <row r="467" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="45"/>
+      <c r="A467" s="31"/>
       <c r="B467" s="24"/>
       <c r="C467" s="24"/>
       <c r="D467" s="24"/>
@@ -7509,7 +8461,7 @@
       <c r="K467" s="24"/>
     </row>
     <row r="468" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="45"/>
+      <c r="A468" s="31"/>
       <c r="B468" s="24"/>
       <c r="C468" s="24"/>
       <c r="D468" s="24"/>
@@ -7522,7 +8474,7 @@
       <c r="K468" s="24"/>
     </row>
     <row r="469" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="45"/>
+      <c r="A469" s="31"/>
       <c r="B469" s="24"/>
       <c r="C469" s="24"/>
       <c r="D469" s="24"/>
@@ -7535,7 +8487,7 @@
       <c r="K469" s="24"/>
     </row>
     <row r="470" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="45"/>
+      <c r="A470" s="31"/>
       <c r="B470" s="24"/>
       <c r="C470" s="24"/>
       <c r="D470" s="24"/>
@@ -7548,7 +8500,7 @@
       <c r="K470" s="24"/>
     </row>
     <row r="471" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="45"/>
+      <c r="A471" s="31"/>
       <c r="B471" s="24"/>
       <c r="C471" s="24"/>
       <c r="D471" s="24"/>
@@ -7561,7 +8513,7 @@
       <c r="K471" s="24"/>
     </row>
     <row r="472" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="45"/>
+      <c r="A472" s="31"/>
       <c r="B472" s="24"/>
       <c r="C472" s="24"/>
       <c r="D472" s="24"/>
@@ -7574,7 +8526,7 @@
       <c r="K472" s="24"/>
     </row>
     <row r="473" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="45"/>
+      <c r="A473" s="31"/>
       <c r="B473" s="24"/>
       <c r="C473" s="24"/>
       <c r="D473" s="24"/>
@@ -7587,7 +8539,7 @@
       <c r="K473" s="24"/>
     </row>
     <row r="474" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="45"/>
+      <c r="A474" s="31"/>
       <c r="B474" s="24"/>
       <c r="C474" s="24"/>
       <c r="D474" s="24"/>
@@ -7600,7 +8552,7 @@
       <c r="K474" s="24"/>
     </row>
     <row r="475" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="45"/>
+      <c r="A475" s="31"/>
       <c r="B475" s="24"/>
       <c r="C475" s="24"/>
       <c r="D475" s="24"/>
@@ -7613,7 +8565,7 @@
       <c r="K475" s="24"/>
     </row>
     <row r="476" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="45"/>
+      <c r="A476" s="31"/>
       <c r="B476" s="24"/>
       <c r="C476" s="24"/>
       <c r="D476" s="24"/>
@@ -7626,7 +8578,7 @@
       <c r="K476" s="24"/>
     </row>
     <row r="477" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="45"/>
+      <c r="A477" s="31"/>
       <c r="B477" s="24"/>
       <c r="C477" s="24"/>
       <c r="D477" s="24"/>
@@ -7639,7 +8591,7 @@
       <c r="K477" s="24"/>
     </row>
     <row r="478" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="45"/>
+      <c r="A478" s="31"/>
       <c r="B478" s="24"/>
       <c r="C478" s="24"/>
       <c r="D478" s="24"/>
@@ -7652,7 +8604,7 @@
       <c r="K478" s="24"/>
     </row>
     <row r="479" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="45"/>
+      <c r="A479" s="31"/>
       <c r="B479" s="24"/>
       <c r="C479" s="24"/>
       <c r="D479" s="24"/>
@@ -7665,7 +8617,7 @@
       <c r="K479" s="24"/>
     </row>
     <row r="480" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="45"/>
+      <c r="A480" s="31"/>
       <c r="B480" s="24"/>
       <c r="C480" s="24"/>
       <c r="D480" s="24"/>
@@ -7678,7 +8630,7 @@
       <c r="K480" s="24"/>
     </row>
     <row r="481" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="45"/>
+      <c r="A481" s="31"/>
       <c r="B481" s="24"/>
       <c r="C481" s="24"/>
       <c r="D481" s="24"/>
@@ -7691,7 +8643,7 @@
       <c r="K481" s="24"/>
     </row>
     <row r="482" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="45"/>
+      <c r="A482" s="31"/>
       <c r="B482" s="24"/>
       <c r="C482" s="24"/>
       <c r="D482" s="24"/>
@@ -7704,7 +8656,7 @@
       <c r="K482" s="24"/>
     </row>
     <row r="483" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="45"/>
+      <c r="A483" s="31"/>
       <c r="B483" s="24"/>
       <c r="C483" s="24"/>
       <c r="D483" s="24"/>
@@ -7717,7 +8669,7 @@
       <c r="K483" s="24"/>
     </row>
     <row r="484" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="45"/>
+      <c r="A484" s="31"/>
       <c r="B484" s="24"/>
       <c r="C484" s="24"/>
       <c r="D484" s="24"/>
@@ -7730,7 +8682,7 @@
       <c r="K484" s="24"/>
     </row>
     <row r="485" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="45"/>
+      <c r="A485" s="31"/>
       <c r="B485" s="24"/>
       <c r="C485" s="24"/>
       <c r="D485" s="24"/>
@@ -7743,7 +8695,7 @@
       <c r="K485" s="24"/>
     </row>
     <row r="486" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="45"/>
+      <c r="A486" s="31"/>
       <c r="B486" s="24"/>
       <c r="C486" s="24"/>
       <c r="D486" s="24"/>
@@ -7756,7 +8708,7 @@
       <c r="K486" s="24"/>
     </row>
     <row r="487" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="45"/>
+      <c r="A487" s="31"/>
       <c r="B487" s="24"/>
       <c r="C487" s="24"/>
       <c r="D487" s="24"/>
@@ -7769,7 +8721,7 @@
       <c r="K487" s="24"/>
     </row>
     <row r="488" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="45"/>
+      <c r="A488" s="31"/>
       <c r="B488" s="24"/>
       <c r="C488" s="24"/>
       <c r="D488" s="24"/>
@@ -7782,7 +8734,7 @@
       <c r="K488" s="24"/>
     </row>
     <row r="489" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="45"/>
+      <c r="A489" s="31"/>
       <c r="B489" s="24"/>
       <c r="C489" s="24"/>
       <c r="D489" s="24"/>
@@ -7795,7 +8747,7 @@
       <c r="K489" s="24"/>
     </row>
     <row r="490" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="45"/>
+      <c r="A490" s="31"/>
       <c r="B490" s="24"/>
       <c r="C490" s="24"/>
       <c r="D490" s="24"/>
@@ -7808,7 +8760,7 @@
       <c r="K490" s="24"/>
     </row>
     <row r="491" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="45"/>
+      <c r="A491" s="31"/>
       <c r="B491" s="24"/>
       <c r="C491" s="24"/>
       <c r="D491" s="24"/>
@@ -7821,7 +8773,7 @@
       <c r="K491" s="24"/>
     </row>
     <row r="492" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="45"/>
+      <c r="A492" s="31"/>
       <c r="B492" s="24"/>
       <c r="C492" s="24"/>
       <c r="D492" s="24"/>
@@ -7834,7 +8786,7 @@
       <c r="K492" s="24"/>
     </row>
     <row r="493" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="45"/>
+      <c r="A493" s="31"/>
       <c r="B493" s="24"/>
       <c r="C493" s="24"/>
       <c r="D493" s="24"/>
@@ -7847,7 +8799,7 @@
       <c r="K493" s="24"/>
     </row>
     <row r="494" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="45"/>
+      <c r="A494" s="31"/>
       <c r="B494" s="24"/>
       <c r="C494" s="24"/>
       <c r="D494" s="24"/>
@@ -7860,7 +8812,7 @@
       <c r="K494" s="24"/>
     </row>
     <row r="495" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A495" s="45"/>
+      <c r="A495" s="31"/>
       <c r="B495" s="24"/>
       <c r="C495" s="24"/>
       <c r="D495" s="24"/>
@@ -7873,7 +8825,7 @@
       <c r="K495" s="24"/>
     </row>
     <row r="496" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="45"/>
+      <c r="A496" s="31"/>
       <c r="B496" s="24"/>
       <c r="C496" s="24"/>
       <c r="D496" s="24"/>
@@ -7886,7 +8838,7 @@
       <c r="K496" s="24"/>
     </row>
     <row r="497" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="45"/>
+      <c r="A497" s="31"/>
       <c r="B497" s="24"/>
       <c r="C497" s="24"/>
       <c r="D497" s="24"/>
@@ -7899,7 +8851,7 @@
       <c r="K497" s="24"/>
     </row>
     <row r="498" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="45"/>
+      <c r="A498" s="31"/>
       <c r="B498" s="24"/>
       <c r="C498" s="24"/>
       <c r="D498" s="24"/>
@@ -7912,7 +8864,7 @@
       <c r="K498" s="24"/>
     </row>
     <row r="499" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="45"/>
+      <c r="A499" s="31"/>
       <c r="B499" s="24"/>
       <c r="C499" s="24"/>
       <c r="D499" s="24"/>
@@ -7925,7 +8877,7 @@
       <c r="K499" s="24"/>
     </row>
     <row r="500" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="45"/>
+      <c r="A500" s="31"/>
       <c r="B500" s="24"/>
       <c r="C500" s="24"/>
       <c r="D500" s="24"/>
@@ -7938,7 +8890,7 @@
       <c r="K500" s="24"/>
     </row>
     <row r="501" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="45"/>
+      <c r="A501" s="31"/>
       <c r="B501" s="24"/>
       <c r="C501" s="24"/>
       <c r="D501" s="24"/>
@@ -7951,7 +8903,7 @@
       <c r="K501" s="24"/>
     </row>
     <row r="502" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="45"/>
+      <c r="A502" s="31"/>
       <c r="B502" s="24"/>
       <c r="C502" s="24"/>
       <c r="D502" s="24"/>
@@ -7964,7 +8916,7 @@
       <c r="K502" s="24"/>
     </row>
     <row r="503" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="45"/>
+      <c r="A503" s="31"/>
       <c r="B503" s="24"/>
       <c r="C503" s="24"/>
       <c r="D503" s="24"/>
@@ -7977,7 +8929,7 @@
       <c r="K503" s="24"/>
     </row>
     <row r="504" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="45"/>
+      <c r="A504" s="31"/>
       <c r="B504" s="24"/>
       <c r="C504" s="24"/>
       <c r="D504" s="24"/>
@@ -7990,7 +8942,7 @@
       <c r="K504" s="24"/>
     </row>
     <row r="505" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="45"/>
+      <c r="A505" s="31"/>
       <c r="B505" s="24"/>
       <c r="C505" s="24"/>
       <c r="D505" s="24"/>
@@ -8003,7 +8955,7 @@
       <c r="K505" s="24"/>
     </row>
     <row r="506" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="45"/>
+      <c r="A506" s="31"/>
       <c r="B506" s="24"/>
       <c r="C506" s="24"/>
       <c r="D506" s="24"/>
@@ -8016,7 +8968,7 @@
       <c r="K506" s="24"/>
     </row>
     <row r="507" spans="1:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="45"/>
+      <c r="A507" s="31"/>
       <c r="B507" s="24"/>
       <c r="C507" s="24"/>
       <c r="D507" s="24"/>
@@ -8055,38 +9007,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -8118,7 +9070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="48" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" s="51" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -8157,29 +9109,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -8230,15 +9182,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
